--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,25 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A236B0-ED3E-4535-BA43-A50902ACB1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4B8650-548E-440E-944A-868B1532CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ONS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Decomposition tests" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
   <si>
     <t>Methods</t>
   </si>
@@ -176,14 +185,53 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>Decomposition</t>
+  </si>
+  <si>
+    <t>STL-A</t>
+  </si>
+  <si>
+    <t>Duration (s)</t>
+  </si>
+  <si>
+    <t>EMD</t>
+  </si>
+  <si>
+    <t>EEMD</t>
+  </si>
+  <si>
+    <t>CEEMDAN</t>
+  </si>
+  <si>
+    <t>EWT</t>
+  </si>
+  <si>
+    <t>Duration (h:mm:ss.000)</t>
+  </si>
+  <si>
+    <t>Modes</t>
+  </si>
+  <si>
+    <t>Decomposition method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tested on ONS </t>
+  </si>
+  <si>
+    <t>Number of IMFs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss.000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -230,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -271,6 +319,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -287,6 +354,3641 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="3">
+                  <c:v>2339.5880999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B7D-4A55-A642-2F8F41213BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$5:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2245.4712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2263.1905000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2226.6338000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2237.6957000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255.5227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2212.9043999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.6035999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2229.6559000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8B7D-4A55-A642-2F8F41213BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2392.4740999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2549.5826000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2617.0545999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2738.9404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2863.1176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2615.3501999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2645.4497000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.8231000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612.0072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8B7D-4A55-A642-2F8F41213BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2372.7037999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2253.3438000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2407.4582999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2420.4529000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2457.5909999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2335.8357999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2341.8168000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.4454999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3562.1704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8B7D-4A55-A642-2F8F41213BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2313.1725000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2415.0837999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2519.4225000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2776.2660999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2594.5520999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2769.5900999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2579.7912000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2532.4270999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2526.4198000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8B7D-4A55-A642-2F8F41213BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1626098416"/>
+        <c:axId val="1626095920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1626098416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626095920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1626095920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3600"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626098416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="3">
+                  <c:v>2339.5880999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$5:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2245.4712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2263.1905000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2226.6338000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2237.6957000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255.5227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2212.9043999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.6035999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2229.6559000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2392.4740999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2549.5826000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2617.0545999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2738.9404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2863.1176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2615.3501999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2645.4497000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.8231000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612.0072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2372.7037999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2253.3438000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2407.4582999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2420.4529000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2457.5909999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2335.8357999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2341.8168000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.4454999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3562.1704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2313.1725000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2415.0837999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2519.4225000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2776.2660999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2594.5520999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2769.5900999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2579.7912000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2532.4270999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2526.4198000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1626098416"/>
+        <c:axId val="1626095920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1626098416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626095920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1626095920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3600"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626098416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9449999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.952</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.4620000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0990-4A43-BD0B-D0D5C7199E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>83.968999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.72200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.67699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.62899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254.74600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.46300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.87799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0990-4A43-BD0B-D0D5C7199E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>572.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>632.05899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>649.72799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>767.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751.91499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>749.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>737.84500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>734.69799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0990-4A43-BD0B-D0D5C7199E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1876484528"/>
+        <c:axId val="1876486608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876484528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876486608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876486608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Duration (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876484528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB841F12-D3ED-435A-A31A-7A78A3213CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A97A6695-960F-42EF-B38E-7FDC3013FF66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B38FF342-A1A8-4D8A-8C69-44CB36F8C844}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId3"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="7239000"/>
+          <a:ext cx="8086725" cy="6134100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7384B161-5D06-4B68-8F72-1046104F523C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -554,7 +4256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -897,12 +4599,836 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40FD8F-5C3D-4EB1-93FA-CACCEB2825E4}">
+  <dimension ref="A2:V25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H3" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="Q3" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="24"/>
+      <c r="U3" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="V3" s="24"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="18"/>
+      <c r="P4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="V4" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D5" s="16">
+        <f>C5/60/60/24</f>
+        <v>3.1250000000000003E-7</v>
+      </c>
+      <c r="G5" s="12">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="19">
+        <v>2392.4740999999999</v>
+      </c>
+      <c r="K5" s="17">
+        <v>2372.7037999999998</v>
+      </c>
+      <c r="L5" s="19">
+        <v>2313.1725000000001</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>1</v>
+      </c>
+      <c r="R5" s="17">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="T5" t="s">
+        <v>53</v>
+      </c>
+      <c r="U5" s="12">
+        <v>1</v>
+      </c>
+      <c r="V5" s="17">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="D6" s="16">
+        <f>C6/60/60/24</f>
+        <v>5.5439814814814813E-6</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="20"/>
+      <c r="I6" s="17">
+        <v>2245.4712</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2549.5826000000002</v>
+      </c>
+      <c r="K6" s="17">
+        <v>2253.3438000000001</v>
+      </c>
+      <c r="L6" s="17">
+        <v>2415.0837999999999</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>2</v>
+      </c>
+      <c r="R6" s="17">
+        <v>150.72200000000001</v>
+      </c>
+      <c r="U6" s="12">
+        <v>2</v>
+      </c>
+      <c r="V6" s="17">
+        <v>2.9449999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3.044</v>
+      </c>
+      <c r="D7" s="16">
+        <f>C7/60/60/24</f>
+        <v>3.5231481481481484E-5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>3</v>
+      </c>
+      <c r="H7" s="20"/>
+      <c r="I7" s="17">
+        <v>2263.1905000000002</v>
+      </c>
+      <c r="J7" s="17">
+        <v>2617.0545999999999</v>
+      </c>
+      <c r="K7" s="17">
+        <v>2407.4582999999998</v>
+      </c>
+      <c r="L7" s="17">
+        <v>2519.4225000000001</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>3</v>
+      </c>
+      <c r="R7" s="17">
+        <v>202.67699999999999</v>
+      </c>
+      <c r="U7" s="12">
+        <v>3</v>
+      </c>
+      <c r="V7" s="17">
+        <v>2.952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="22">
+        <v>247.36799999999999</v>
+      </c>
+      <c r="D8" s="16">
+        <f>C8/60/60/24</f>
+        <v>2.8630555555555558E-3</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="G8" s="12">
+        <v>4</v>
+      </c>
+      <c r="H8" s="20">
+        <v>2339.5880999999999</v>
+      </c>
+      <c r="I8" s="17">
+        <v>2226.6338000000001</v>
+      </c>
+      <c r="J8" s="17">
+        <v>2738.9404</v>
+      </c>
+      <c r="K8" s="17">
+        <v>2420.4529000000002</v>
+      </c>
+      <c r="L8" s="17">
+        <v>2776.2660999999998</v>
+      </c>
+      <c r="Q8" s="12">
+        <v>4</v>
+      </c>
+      <c r="R8" s="17">
+        <v>221.08</v>
+      </c>
+      <c r="U8" s="12">
+        <v>4</v>
+      </c>
+      <c r="V8" s="17">
+        <v>3.161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="22">
+        <v>713.16499999999996</v>
+      </c>
+      <c r="D9" s="16">
+        <f>C9/60/60/24</f>
+        <v>8.2542245370370373E-3</v>
+      </c>
+      <c r="G9" s="12">
+        <v>5</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="17">
+        <v>2237.6957000000002</v>
+      </c>
+      <c r="J9" s="17">
+        <v>2863.1176</v>
+      </c>
+      <c r="K9" s="17">
+        <v>2457.5909999999999</v>
+      </c>
+      <c r="L9" s="17">
+        <v>2594.5520999999999</v>
+      </c>
+      <c r="Q9" s="12">
+        <v>5</v>
+      </c>
+      <c r="R9" s="17">
+        <v>240.23500000000001</v>
+      </c>
+      <c r="U9" s="12">
+        <v>5</v>
+      </c>
+      <c r="V9" s="17">
+        <v>3.2360000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="11"/>
+      <c r="G10" s="12">
+        <v>6</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="17">
+        <v>2255.5227</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2615.3501999999999</v>
+      </c>
+      <c r="K10" s="17">
+        <v>2335.8357999999998</v>
+      </c>
+      <c r="L10" s="17">
+        <v>2769.5900999999999</v>
+      </c>
+      <c r="Q10" s="12">
+        <v>6</v>
+      </c>
+      <c r="R10" s="17">
+        <v>252.62899999999999</v>
+      </c>
+      <c r="U10" s="12">
+        <v>6</v>
+      </c>
+      <c r="V10" s="17">
+        <v>3.1539999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="11"/>
+      <c r="G11" s="12">
+        <v>7</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21">
+        <v>2212.9043999999999</v>
+      </c>
+      <c r="J11" s="17">
+        <v>2645.4497000000001</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2341.8168000000001</v>
+      </c>
+      <c r="L11" s="17">
+        <v>2579.7912000000001</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>7</v>
+      </c>
+      <c r="R11" s="17">
+        <v>254.74600000000001</v>
+      </c>
+      <c r="U11" s="12">
+        <v>7</v>
+      </c>
+      <c r="V11" s="17">
+        <v>3.1219999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="11"/>
+      <c r="G12" s="12">
+        <v>8</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="19">
+        <v>2172.6035999999999</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2596.8231000000001</v>
+      </c>
+      <c r="K12" s="19">
+        <v>2172.4454999999998</v>
+      </c>
+      <c r="L12" s="17">
+        <v>2532.4270999999999</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>8</v>
+      </c>
+      <c r="R12" s="17">
+        <v>265.46300000000002</v>
+      </c>
+      <c r="U12" s="12">
+        <v>8</v>
+      </c>
+      <c r="V12" s="17">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="11"/>
+      <c r="G13" s="12">
+        <v>9</v>
+      </c>
+      <c r="H13" s="20"/>
+      <c r="I13" s="17">
+        <v>2229.6559000000002</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2612.0072</v>
+      </c>
+      <c r="K13" s="17">
+        <v>3562.1704</v>
+      </c>
+      <c r="L13" s="17">
+        <v>2526.4198000000001</v>
+      </c>
+      <c r="Q13" s="12">
+        <v>9</v>
+      </c>
+      <c r="R13" s="17">
+        <v>267.87799999999999</v>
+      </c>
+      <c r="U13" s="12">
+        <v>9</v>
+      </c>
+      <c r="V13" s="17">
+        <v>3.4620000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="Q15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="R15" s="24"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="R16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="Q17" s="12">
+        <v>1</v>
+      </c>
+      <c r="R17" s="17">
+        <v>572.99900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="Q18" s="12">
+        <v>2</v>
+      </c>
+      <c r="R18" s="17">
+        <v>632.05899999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="Q19" s="12">
+        <v>3</v>
+      </c>
+      <c r="R19" s="17">
+        <v>649.72799999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q20" s="12">
+        <v>4</v>
+      </c>
+      <c r="R20" s="17">
+        <v>737.798</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q21" s="12">
+        <v>5</v>
+      </c>
+      <c r="R21" s="17">
+        <v>767.78499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q22" s="12">
+        <v>6</v>
+      </c>
+      <c r="R22" s="17">
+        <v>751.91499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q23" s="12">
+        <v>7</v>
+      </c>
+      <c r="R23" s="17">
+        <v>749.35599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q24" s="12">
+        <v>8</v>
+      </c>
+      <c r="R24" s="17">
+        <v>737.84500000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="Q25" s="12">
+        <v>9</v>
+      </c>
+      <c r="R25" s="17">
+        <v>734.69799999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="U3:V3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3193C8-EB99-41EF-BB0C-E7525732AF65}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F8671-37B5-4360-8FC2-FA32C0D1EE3B}">
+  <dimension ref="A1:G29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1"/>
+      <c r="D1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="14"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="23"/>
+      <c r="B3" s="12">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17">
+        <v>2.4870000000000001</v>
+      </c>
+      <c r="D3" s="17">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="E3" s="17">
+        <v>572.99900000000002</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="17"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="D4" s="17">
+        <v>150.72200000000001</v>
+      </c>
+      <c r="E4" s="17">
+        <v>632.05899999999997</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="C5" s="17">
+        <v>2.952</v>
+      </c>
+      <c r="D5" s="17">
+        <v>202.67699999999999</v>
+      </c>
+      <c r="E5" s="17">
+        <v>649.72799999999995</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
+      <c r="B6" s="12">
+        <v>4</v>
+      </c>
+      <c r="C6" s="17">
+        <v>3.161</v>
+      </c>
+      <c r="D6" s="17">
+        <v>221.08</v>
+      </c>
+      <c r="E6" s="17">
+        <v>737.798</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="23"/>
+      <c r="B7" s="12">
+        <v>5</v>
+      </c>
+      <c r="C7" s="17">
+        <v>3.2360000000000002</v>
+      </c>
+      <c r="D7" s="17">
+        <v>240.23500000000001</v>
+      </c>
+      <c r="E7" s="17">
+        <v>767.78499999999997</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="17">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="D8" s="17">
+        <v>252.62899999999999</v>
+      </c>
+      <c r="E8" s="17">
+        <v>751.91499999999996</v>
+      </c>
+      <c r="F8" s="12"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="12">
+        <v>7</v>
+      </c>
+      <c r="C9" s="17">
+        <v>3.1219999999999999</v>
+      </c>
+      <c r="D9" s="17">
+        <v>254.74600000000001</v>
+      </c>
+      <c r="E9" s="17">
+        <v>749.35599999999999</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="12">
+        <v>8</v>
+      </c>
+      <c r="C10" s="17">
+        <v>3.0680000000000001</v>
+      </c>
+      <c r="D10" s="17">
+        <v>265.46300000000002</v>
+      </c>
+      <c r="E10" s="17">
+        <v>737.84500000000003</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="12">
+        <v>9</v>
+      </c>
+      <c r="C11" s="17">
+        <v>3.4620000000000002</v>
+      </c>
+      <c r="D11" s="17">
+        <v>267.87799999999999</v>
+      </c>
+      <c r="E11" s="17">
+        <v>734.69799999999998</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="23"/>
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
+      <c r="B29" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4B8650-548E-440E-944A-868B1532CF9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAB4B5-19CF-4A25-8122-E304A2A6A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ONS" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
   <si>
     <t>Methods</t>
   </si>
@@ -222,6 +222,12 @@
   <si>
     <t>Number of IMFs</t>
   </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>XGBoost</t>
+  </si>
 </sst>
 </file>
 
@@ -278,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +341,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -407,7 +414,7 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>2339.5880999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1025,6 +1032,1296 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>2403.3393000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A89F-40C0-A89B-B8FC1C385E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2087.5054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2083.8233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.7368000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.6126999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.8257000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031.3905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2040.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2108.3820999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A89F-40C0-A89B-B8FC1C385E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2207.2873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2278.2395000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2719.9313999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2897.8775000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321.8616999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.4784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.5055000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2925.0524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2922.5725000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A89F-40C0-A89B-B8FC1C385E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.1633999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2297.1839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308.6291000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2324.6129000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2326.1549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2233.2543000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2252.1842000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2067.5255000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2082.5902000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A89F-40C0-A89B-B8FC1C385E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2252.9481000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2222.1786000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2342.9792000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647.0506999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2967.7283000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2804.5895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2734.0311000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.2339999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2668.3697999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A89F-40C0-A89B-B8FC1C385E02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1700757631"/>
+        <c:axId val="1700753055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1700757631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700753055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1700753055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3400"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700757631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$44:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>4068.5992000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0A1-45AB-BB84-0A12231E0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$44:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>4673.7154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3744.0219999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3927.3984999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3948.0063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3954.9625000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3971.9029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4089.1448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4037.1493999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0A1-45AB-BB84-0A12231E0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$44:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3312.4160999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3861.7303000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4109.3037999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4794.3135000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0A1-45AB-BB84-0A12231E0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$44:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3355.5754000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3388.1349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3838.3328999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4540.5003999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A0A1-45AB-BB84-0A12231E0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$44:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3520.2480999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3703.5209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4054.8339999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4477.1706000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5163.3675999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5771.4120999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5764.3146999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5901.0825000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5900.2129999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A0A1-45AB-BB84-0A12231E0AAE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1747081023"/>
+        <c:axId val="1747099743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1747081023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747099743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1747099743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747081023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
@@ -1054,7 +2351,7 @@
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>2339.5880999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1650,7 +2947,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1672,22 +2969,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$2</c:f>
+              <c:f>'Decomposition tests'!$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EMD</c:v>
+                  <c:v>STL-A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1697,56 +2994,227 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$11</c:f>
+              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>2.4870000000000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.9449999999999998</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.952</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.161</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.1539999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.1219999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0680000000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.4620000000000002</c:v>
+                  <c:v>2403.3393000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0990-4A43-BD0B-D0D5C7199E16}"/>
+              <c16:uniqueId val="{00000000-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2087.5054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2083.8233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.7368000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.6126999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.8257000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031.3905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2040.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2108.3820999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23CB-41B6-8E35-A99FAC45AB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2207.2873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2278.2395000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2719.9313999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2897.8775000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321.8616999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.4784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.5055000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2925.0524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2922.5725000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.1633999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2297.1839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308.6291000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2324.6129000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2326.1549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2233.2543000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2252.1842000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2067.5255000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2082.5902000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1763,6 +3231,1704 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
+              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2252.9481000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2222.1786000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2342.9792000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647.0506999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2967.7283000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2804.5895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2734.0311000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.2339999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2668.3697999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1700757631"/>
+        <c:axId val="1700753055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1700757631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700753055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1700753055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3400"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700757631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$44:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>4068.5992000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$44:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>4673.7154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3744.0219999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3927.3984999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3948.0063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3954.9625000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3971.9029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4089.1448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4037.1493999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$44:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3312.4160999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3861.7303000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4109.3037999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4794.3135000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$44:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3355.5754000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3388.1349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3838.3328999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4540.5003999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$44:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3520.2480999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3703.5209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4054.8339999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4477.1706000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5163.3675999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5771.4120999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5764.3146999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5901.0825000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5900.2129999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1747081023"/>
+        <c:axId val="1747099743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1747081023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747099743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1747099743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747081023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>2403.3393000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2087.5054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2083.8233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.7368000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.6126999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.8257000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031.3905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2040.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2108.3820999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2207.2873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2278.2395000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2719.9313999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2897.8775000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321.8616999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.4784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.5055000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2925.0524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2922.5725000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.1633999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2297.1839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308.6291000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2324.6129000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2326.1549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2233.2543000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2252.1842000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2067.5255000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2082.5902000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2252.9481000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2222.1786000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2342.9792000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647.0506999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2967.7283000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2804.5895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2734.0311000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.2339999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2668.3697999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1700757631"/>
+        <c:axId val="1700753055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1700757631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700753055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1700753055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3400"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700757631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
               <c:f>Sheet1!$D$3:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -1805,7 +4971,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Sheet1!$E$2</c:f>
@@ -1819,7 +4985,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2307,6 +5473,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3816,20 +7182,2535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3849,6 +9730,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2D52521-C101-4FF4-9379-BB46E286B342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D8B17E-361F-4CE0-B7B6-0948DBDD39B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3939,6 +9892,220 @@
         <a:xfrm>
           <a:off x="4267200" y="7239000"/>
           <a:ext cx="8086725" cy="6134100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6480ABF1-2FBC-45FA-8E6D-03396D0F2883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F57FB2F8-6AF9-4173-8D71-F52552BBB459}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphic 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9517E074-07F9-4BE5-A73F-2A0D2BECBB5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId7"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4457700" y="20231100"/>
+          <a:ext cx="8067675" cy="6153150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Chart 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5696FAF-894D-425D-A3C0-3E6C83B24751}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphic 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5914DD-3688-4CDC-B8F8-A7A91D15387B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4267200" y="13563600"/>
+          <a:ext cx="8096250" cy="6143625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4256,7 +10423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
@@ -4599,10 +10766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40FD8F-5C3D-4EB1-93FA-CACCEB2825E4}">
-  <dimension ref="A2:V25"/>
+  <dimension ref="A2:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="B27" workbookViewId="0">
+      <selection activeCell="R67" sqref="R67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4611,7 +10778,8 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
@@ -4622,23 +10790,26 @@
       <c r="B2" t="s">
         <v>60</v>
       </c>
+      <c r="G2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="Q3" s="24" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="Q3" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="24"/>
-      <c r="U3" s="24" t="s">
+      <c r="R3" s="25"/>
+      <c r="U3" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="24"/>
+      <c r="V3" s="25"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -4781,7 +10952,9 @@
       <c r="G7" s="12">
         <v>3</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="24">
+        <v>2339.5880999999999</v>
+      </c>
       <c r="I7" s="17">
         <v>2263.1905000000002</v>
       </c>
@@ -4821,9 +10994,6 @@
       <c r="E8" s="15"/>
       <c r="G8" s="12">
         <v>4</v>
-      </c>
-      <c r="H8" s="20">
-        <v>2339.5880999999999</v>
       </c>
       <c r="I8" s="17">
         <v>2226.6338000000001</v>
@@ -5016,10 +11186,13 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
-      <c r="Q15" s="24" t="s">
+      <c r="G15" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q15" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="24"/>
+      <c r="R15" s="25"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -5027,7 +11200,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="H16" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
       <c r="P16" t="s">
         <v>55</v>
       </c>
@@ -5044,7 +11223,24 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="G17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>55</v>
+      </c>
       <c r="Q17" s="12">
         <v>1</v>
       </c>
@@ -5058,7 +11254,20 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="12">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="19">
+        <v>2207.2873</v>
+      </c>
+      <c r="K18" s="17">
+        <v>2237.1633999999999</v>
+      </c>
+      <c r="L18" s="17">
+        <v>2252.9481000000001</v>
+      </c>
       <c r="Q18" s="12">
         <v>2</v>
       </c>
@@ -5072,7 +11281,22 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="12">
+        <v>2</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="17">
+        <v>2087.5054</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2278.2395000000001</v>
+      </c>
+      <c r="K19" s="17">
+        <v>2297.1839</v>
+      </c>
+      <c r="L19" s="19">
+        <v>2222.1786000000002</v>
+      </c>
       <c r="Q19" s="12">
         <v>3</v>
       </c>
@@ -5081,6 +11305,24 @@
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G20" s="12">
+        <v>3</v>
+      </c>
+      <c r="H20" s="24">
+        <v>2403.3393000000001</v>
+      </c>
+      <c r="I20" s="17">
+        <v>2083.8233</v>
+      </c>
+      <c r="J20" s="17">
+        <v>2719.9313999999999</v>
+      </c>
+      <c r="K20" s="17">
+        <v>2308.6291000000001</v>
+      </c>
+      <c r="L20" s="17">
+        <v>2342.9792000000002</v>
+      </c>
       <c r="Q20" s="12">
         <v>4</v>
       </c>
@@ -5089,6 +11331,22 @@
       </c>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G21" s="12">
+        <v>4</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="17">
+        <v>2049.7368000000001</v>
+      </c>
+      <c r="J21" s="17">
+        <v>2897.8775000000001</v>
+      </c>
+      <c r="K21" s="17">
+        <v>2324.6129000000001</v>
+      </c>
+      <c r="L21" s="17">
+        <v>2647.0506999999998</v>
+      </c>
       <c r="Q21" s="12">
         <v>5</v>
       </c>
@@ -5097,6 +11355,22 @@
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G22" s="12">
+        <v>5</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="17">
+        <v>1985.6126999999999</v>
+      </c>
+      <c r="J22" s="17">
+        <v>3321.8616999999999</v>
+      </c>
+      <c r="K22" s="17">
+        <v>2326.1549</v>
+      </c>
+      <c r="L22" s="17">
+        <v>2967.7283000000002</v>
+      </c>
       <c r="Q22" s="12">
         <v>6</v>
       </c>
@@ -5105,6 +11379,22 @@
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G23" s="12">
+        <v>6</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="19">
+        <v>1982.8257000000001</v>
+      </c>
+      <c r="J23" s="17">
+        <v>3029.4784</v>
+      </c>
+      <c r="K23" s="17">
+        <v>2233.2543000000001</v>
+      </c>
+      <c r="L23" s="17">
+        <v>2804.5895</v>
+      </c>
       <c r="Q23" s="12">
         <v>7</v>
       </c>
@@ -5113,6 +11403,22 @@
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G24" s="12">
+        <v>7</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="21">
+        <v>2031.3905</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2977.5055000000002</v>
+      </c>
+      <c r="K24" s="17">
+        <v>2252.1842000000001</v>
+      </c>
+      <c r="L24" s="17">
+        <v>2734.0311000000002</v>
+      </c>
       <c r="Q24" s="12">
         <v>8</v>
       </c>
@@ -5121,6 +11427,22 @@
       </c>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G25" s="12">
+        <v>8</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="21">
+        <v>2040.34</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2925.0524</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2067.5255000000002</v>
+      </c>
+      <c r="L25" s="17">
+        <v>2732.2339999999999</v>
+      </c>
       <c r="Q25" s="12">
         <v>9</v>
       </c>
@@ -5128,12 +11450,425 @@
         <v>734.69799999999998</v>
       </c>
     </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G26" s="12">
+        <v>9</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="17">
+        <v>2108.3820999999998</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2922.5725000000002</v>
+      </c>
+      <c r="K26" s="17">
+        <v>2082.5902000000001</v>
+      </c>
+      <c r="L26" s="17">
+        <v>2668.3697999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="H29" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="25"/>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="19">
+        <v>4585.3242</v>
+      </c>
+      <c r="K31" s="19">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L31" s="19">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="G32" s="12">
+        <v>2</v>
+      </c>
+      <c r="H32" s="20"/>
+      <c r="I32" s="17">
+        <v>4715.5369000000001</v>
+      </c>
+      <c r="J32" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K32" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L32" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="33" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G33" s="12">
+        <v>3</v>
+      </c>
+      <c r="H33" s="24">
+        <v>4585.3242</v>
+      </c>
+      <c r="I33" s="17">
+        <v>4630.7716</v>
+      </c>
+      <c r="J33" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K33" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L33" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G34" s="12">
+        <v>4</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="17">
+        <v>4581.2304000000004</v>
+      </c>
+      <c r="J34" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K34" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L34" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="35" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G35" s="12">
+        <v>5</v>
+      </c>
+      <c r="H35" s="20"/>
+      <c r="I35" s="17">
+        <v>4581.2977000000001</v>
+      </c>
+      <c r="J35" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K35" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L35" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G36" s="12">
+        <v>6</v>
+      </c>
+      <c r="H36" s="20"/>
+      <c r="I36" s="21">
+        <v>4580.4928</v>
+      </c>
+      <c r="J36" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K36" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L36" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="37" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G37" s="12">
+        <v>7</v>
+      </c>
+      <c r="H37" s="20"/>
+      <c r="I37" s="19">
+        <v>4578.2130999999999</v>
+      </c>
+      <c r="J37" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K37" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L37" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G38" s="12">
+        <v>8</v>
+      </c>
+      <c r="H38" s="20"/>
+      <c r="I38" s="21">
+        <v>4579.1049999999996</v>
+      </c>
+      <c r="J38" s="21">
+        <v>4585.3242</v>
+      </c>
+      <c r="K38" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L38" s="21">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="39" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G39" s="12">
+        <v>9</v>
+      </c>
+      <c r="H39" s="20"/>
+      <c r="I39" s="17">
+        <v>4581.0482000000002</v>
+      </c>
+      <c r="J39" s="17">
+        <v>4585.3242</v>
+      </c>
+      <c r="K39" s="17">
+        <v>4584.8136000000004</v>
+      </c>
+      <c r="L39" s="17">
+        <v>4585.3242</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="H42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+    </row>
+    <row r="43" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G44" s="12">
+        <v>1</v>
+      </c>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="19">
+        <v>3312.4160999999999</v>
+      </c>
+      <c r="K44" s="19">
+        <v>3355.5754000000002</v>
+      </c>
+      <c r="L44" s="19">
+        <v>3520.2480999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G45" s="12">
+        <v>2</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="17">
+        <v>4673.7154</v>
+      </c>
+      <c r="J45" s="17">
+        <v>3861.7303000000002</v>
+      </c>
+      <c r="K45" s="21">
+        <v>3388.1349</v>
+      </c>
+      <c r="L45" s="21">
+        <v>3703.5209</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G46" s="12">
+        <v>3</v>
+      </c>
+      <c r="H46" s="24">
+        <v>4068.5992000000001</v>
+      </c>
+      <c r="I46" s="19">
+        <v>3744.0219999999999</v>
+      </c>
+      <c r="J46" s="21">
+        <v>4109.3037999999997</v>
+      </c>
+      <c r="K46" s="17">
+        <v>3838.3328999999999</v>
+      </c>
+      <c r="L46" s="21">
+        <v>4054.8339999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G47" s="12">
+        <v>4</v>
+      </c>
+      <c r="H47" s="20"/>
+      <c r="I47" s="17">
+        <v>3927.3984999999998</v>
+      </c>
+      <c r="J47" s="21">
+        <v>4794.3135000000002</v>
+      </c>
+      <c r="K47" s="17">
+        <v>4540.5003999999999</v>
+      </c>
+      <c r="L47" s="21">
+        <v>4477.1706000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G48" s="12">
+        <v>5</v>
+      </c>
+      <c r="H48" s="20"/>
+      <c r="I48" s="17">
+        <v>3948.0063</v>
+      </c>
+      <c r="J48" s="21">
+        <v>4948.0290999999997</v>
+      </c>
+      <c r="K48" s="17">
+        <v>4948.0290999999997</v>
+      </c>
+      <c r="L48" s="21">
+        <v>5163.3675999999996</v>
+      </c>
+    </row>
+    <row r="49" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G49" s="12">
+        <v>6</v>
+      </c>
+      <c r="H49" s="20"/>
+      <c r="I49" s="19">
+        <v>3954.9625000000001</v>
+      </c>
+      <c r="J49" s="21">
+        <v>5125.4876000000004</v>
+      </c>
+      <c r="K49" s="17">
+        <v>5125.4876000000004</v>
+      </c>
+      <c r="L49" s="21">
+        <v>5771.4120999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G50" s="12">
+        <v>7</v>
+      </c>
+      <c r="H50" s="20"/>
+      <c r="I50" s="21">
+        <v>3971.9029</v>
+      </c>
+      <c r="J50" s="21">
+        <v>5863.3380999999999</v>
+      </c>
+      <c r="K50" s="17">
+        <v>5863.3380999999999</v>
+      </c>
+      <c r="L50" s="21">
+        <v>5764.3146999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G51" s="12">
+        <v>8</v>
+      </c>
+      <c r="H51" s="20"/>
+      <c r="I51" s="21">
+        <v>4089.1448</v>
+      </c>
+      <c r="J51" s="21">
+        <v>5876.5378000000001</v>
+      </c>
+      <c r="K51" s="17">
+        <v>5876.5378000000001</v>
+      </c>
+      <c r="L51" s="21">
+        <v>5901.0825000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="7:12" x14ac:dyDescent="0.25">
+      <c r="G52" s="12">
+        <v>9</v>
+      </c>
+      <c r="H52" s="20"/>
+      <c r="I52" s="17">
+        <v>4037.1493999999998</v>
+      </c>
+      <c r="J52" s="17">
+        <v>5960.3999000000003</v>
+      </c>
+      <c r="K52" s="17">
+        <v>5960.3999000000003</v>
+      </c>
+      <c r="L52" s="17">
+        <v>5900.2129999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="H29:L29"/>
+    <mergeCell ref="H42:L42"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="H16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
@@ -5145,8 +11880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3193C8-EB99-41EF-BB0C-E7525732AF65}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5161,7 +11896,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S9" sqref="S9"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,8 +11915,8 @@
       <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">

--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAAB4B5-19CF-4A25-8122-E304A2A6A8BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C6796-4D73-479E-9862-22D4D2B1F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ONS" sheetId="1" r:id="rId1"/>
     <sheet name="Decomposition tests" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Decomposition tests - 2019" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
   <si>
     <t>Methods</t>
   </si>
@@ -228,6 +229,15 @@
   <si>
     <t>XGBoost</t>
   </si>
+  <si>
+    <t>Forecast 15 days</t>
+  </si>
+  <si>
+    <t>kfold = 10</t>
+  </si>
+  <si>
+    <t>2015-2018 + 2019</t>
+  </si>
 </sst>
 </file>
 
@@ -284,7 +294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,6 +352,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -926,6 +939,1122 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>2403.3393000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2087.5054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2083.8233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.7368000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.6126999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.8257000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031.3905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2040.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2108.3820999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2207.2873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2278.2395000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2719.9313999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2897.8775000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321.8616999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.4784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.5055000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2925.0524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2922.5725000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.1633999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2297.1839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308.6291000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2324.6129000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2326.1549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2233.2543000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2252.1842000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2067.5255000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2082.5902000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2252.9481000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2222.1786000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2342.9792000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647.0506999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2967.7283000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2804.5895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2734.0311000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.2339999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2668.3697999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-96A3-4E33-8B4D-7749E5067DB3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1700757631"/>
+        <c:axId val="1700753055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1700757631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700753055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1700753055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3400"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700757631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>83.968999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150.72200000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>202.67699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>221.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>240.23500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>252.62899999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>254.74600000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>265.46300000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>267.87799999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0990-4A43-BD0B-D0D5C7199E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>572.99900000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>632.05899999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>649.72799999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>737.798</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>767.78499999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>751.91499999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>749.35599999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>737.84500000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>734.69799999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0990-4A43-BD0B-D0D5C7199E16}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1876484528"/>
+        <c:axId val="1876486608"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1876484528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876486608"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1876486608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Duration (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1876484528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2359,7 +3488,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000000-0971-471B-8B2F-293903FFA473}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2422,7 +3551,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000001-0971-471B-8B2F-293903FFA473}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2488,7 +3617,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000002-0971-471B-8B2F-293903FFA473}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2554,7 +3683,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000003-0971-471B-8B2F-293903FFA473}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2620,7 +3749,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000004-0971-471B-8B2F-293903FFA473}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2651,7 +3780,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2664,7 +3793,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:rPr lang="en-US" sz="1200" b="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -2686,7 +3815,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2723,7 +3852,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2775,7 +3904,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2788,7 +3917,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:rPr lang="en-US" sz="1200" b="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -2810,7 +3939,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2844,7 +3973,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2984,7 +4113,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3006,7 +4135,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000000-B582-489D-943F-90AF5A0683FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3069,7 +4198,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000001-B582-489D-943F-90AF5A0683FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3135,7 +4264,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000002-B582-489D-943F-90AF5A0683FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3201,7 +4330,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000003-B582-489D-943F-90AF5A0683FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3267,7 +4396,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000004-B582-489D-943F-90AF5A0683FC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3651,7 +4780,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000000-12D3-4797-89B9-3936A96553BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3714,7 +4843,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000001-12D3-4797-89B9-3936A96553BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3780,7 +4909,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000002-12D3-4797-89B9-3936A96553BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3846,7 +4975,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000003-12D3-4797-89B9-3936A96553BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3912,7 +5041,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000004-12D3-4797-89B9-3936A96553BF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4259,11 +5388,11 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:f>'Decomposition tests'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4284,6 +5413,653 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
+              <c:f>'Decomposition tests'!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>2339.5880999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$5:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2245.4712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2263.1905000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2226.6338000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2237.6957000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255.5227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2212.9043999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.6035999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2229.6559000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2392.4740999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2549.5826000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2617.0545999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2738.9404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2863.1176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2615.3501999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2645.4497000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.8231000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612.0072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2372.7037999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2253.3438000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2407.4582999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2420.4529000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2457.5909999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2335.8357999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2341.8168000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.4454999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3562.1704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2313.1725000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2415.0837999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2519.4225000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2776.2660999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2594.5520999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2769.5900999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2579.7912000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2532.4270999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2526.4198000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1626098416"/>
+        <c:axId val="1626095920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1626098416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626095920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1626095920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3600"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626098416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
               <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
@@ -4296,7 +6072,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-96A3-4E33-8B4D-7749E5067DB3}"/>
+              <c16:uniqueId val="{00000000-23CB-41B6-8E35-A99FAC45AB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4359,7 +6135,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-96A3-4E33-8B4D-7749E5067DB3}"/>
+              <c16:uniqueId val="{00000001-23CB-41B6-8E35-A99FAC45AB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4425,7 +6201,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-96A3-4E33-8B4D-7749E5067DB3}"/>
+              <c16:uniqueId val="{00000002-23CB-41B6-8E35-A99FAC45AB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4491,7 +6267,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-96A3-4E33-8B4D-7749E5067DB3}"/>
+              <c16:uniqueId val="{00000003-23CB-41B6-8E35-A99FAC45AB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4557,7 +6333,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-96A3-4E33-8B4D-7749E5067DB3}"/>
+              <c16:uniqueId val="{00000004-23CB-41B6-8E35-A99FAC45AB4C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4882,7 +6658,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4904,22 +6680,22 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$2</c:f>
+              <c:f>'Decomposition tests'!$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>EEMD</c:v>
+                  <c:v>STL-A</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4929,52 +6705,223 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$11</c:f>
+              <c:f>'Decomposition tests'!$H$44:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>83.968999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>150.72200000000001</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>202.67699999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>221.08</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>240.23500000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>252.62899999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>254.74600000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>265.46300000000002</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>267.87799999999999</c:v>
+                  <c:v>4068.5992000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0990-4A43-BD0B-D0D5C7199E16}"/>
+              <c16:uniqueId val="{00000000-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$44:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>4673.7154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3744.0219999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3927.3984999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3948.0063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3954.9625000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3971.9029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4089.1448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4037.1493999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$44:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3312.4160999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3861.7303000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4109.3037999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4794.3135000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D735-4189-A9E4-B0D10F915CB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$2</c:f>
+              <c:f>'Decomposition tests'!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$44:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3355.5754000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3388.1349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3838.3328999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4540.5003999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4995,43 +6942,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$11</c:f>
+              <c:f>'Decomposition tests'!$L$44:$L$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>572.99900000000002</c:v>
+                  <c:v>3520.2480999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>632.05899999999997</c:v>
+                  <c:v>3703.5209</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>649.72799999999995</c:v>
+                  <c:v>4054.8339999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>737.798</c:v>
+                  <c:v>4477.1706000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>767.78499999999997</c:v>
+                  <c:v>5163.3675999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>751.91499999999996</c:v>
+                  <c:v>5771.4120999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>749.35599999999999</c:v>
+                  <c:v>5764.3146999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>737.84500000000003</c:v>
+                  <c:v>5901.0825000000004</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>734.69799999999998</c:v>
+                  <c:v>5900.2129999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-0990-4A43-BD0B-D0D5C7199E16}"/>
+              <c16:uniqueId val="{00000004-D735-4189-A9E4-B0D10F915CB5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5045,11 +6992,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1876484528"/>
-        <c:axId val="1876486608"/>
+        <c:axId val="1747081023"/>
+        <c:axId val="1747099743"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1876484528"/>
+        <c:axId val="1747081023"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5062,7 +7009,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5075,7 +7022,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -5097,7 +7044,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5134,7 +7081,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5149,7 +7096,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876486608"/>
+        <c:crossAx val="1747099743"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5157,9 +7104,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1876486608"/>
+        <c:axId val="1747099743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+          <c:min val="3000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5184,7 +7133,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -5197,11 +7146,11 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
-                  <a:t>Duration (s)</a:t>
+                  <a:t>RMSE</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5219,7 +7168,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -5251,7 +7200,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -5266,9 +7215,10 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1876484528"/>
+        <c:crossAx val="1747081023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="250"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5354,6 +7304,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5673,6 +7703,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6176,7 +8246,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6679,7 +8749,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7182,7 +9252,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7685,7 +9755,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8188,7 +10258,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8691,7 +10761,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9194,7 +11264,1516 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9773,16 +13352,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>933450</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9811,6 +13390,125 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAAC9786-7D59-4512-B2FB-AFE3CAE2E8D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>271461</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47468777-7212-48ED-B60E-BA7B1D92D88C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EB59F69-7CCA-4A6D-93EE-0FEA3DC469E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10117,7 +13815,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10768,8 +14466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40FD8F-5C3D-4EB1-93FA-CACCEB2825E4}">
   <dimension ref="A2:V52"/>
   <sheetViews>
-    <sheetView topLeftCell="B27" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10795,21 +14493,21 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="Q3" s="25" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="Q3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="U3" s="25" t="s">
+      <c r="R3" s="26"/>
+      <c r="U3" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="25"/>
+      <c r="V3" s="26"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -11189,10 +14887,10 @@
       <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="25" t="s">
+      <c r="Q15" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="25"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -11200,13 +14898,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
       <c r="P16" t="s">
         <v>55</v>
       </c>
@@ -11474,13 +15172,13 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="25"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G30" s="10" t="s">
@@ -11670,13 +15368,13 @@
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="25" t="s">
+      <c r="H42" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G43" s="10" t="s">
@@ -11793,7 +15491,7 @@
         <v>6</v>
       </c>
       <c r="H49" s="20"/>
-      <c r="I49" s="19">
+      <c r="I49" s="21">
         <v>3954.9625000000001</v>
       </c>
       <c r="J49" s="21">
@@ -11862,25 +15560,1130 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="H16:L16"/>
     <mergeCell ref="H29:L29"/>
     <mergeCell ref="H42:L42"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="H16:L16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD0F102-3DC7-4C51-AC7B-A274D668D3C9}">
+  <dimension ref="A1:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="P3" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="26"/>
+      <c r="T3" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="26"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="18"/>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C5" s="16">
+        <f>B5/60/60/24</f>
+        <v>3.1250000000000003E-7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19">
+        <v>3029.1377000000002</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3007.9765000000002</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2961.8478</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="17">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C6" s="16">
+        <f>B6/60/60/24</f>
+        <v>5.5439814814814813E-6</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19">
+        <v>2916.1487000000002</v>
+      </c>
+      <c r="I6" s="17">
+        <v>3233.2348000000002</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2975.0403999999999</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3156.7096999999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>150.72200000000001</v>
+      </c>
+      <c r="T6" s="12">
+        <v>2</v>
+      </c>
+      <c r="U6" s="17">
+        <v>2.9449999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.044</v>
+      </c>
+      <c r="C7" s="16">
+        <f>B7/60/60/24</f>
+        <v>3.5231481481481484E-5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17">
+        <v>3022.0349999999999</v>
+      </c>
+      <c r="I7" s="17">
+        <v>3252.2988</v>
+      </c>
+      <c r="J7" s="17">
+        <v>3139.1694000000002</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3236.1898000000001</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>202.67699999999999</v>
+      </c>
+      <c r="T7" s="12">
+        <v>3</v>
+      </c>
+      <c r="U7" s="17">
+        <v>2.952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="22">
+        <v>247.36799999999999</v>
+      </c>
+      <c r="C8" s="16">
+        <f>B8/60/60/24</f>
+        <v>2.8630555555555558E-3</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <v>3021.7800999999999</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3328.0574000000001</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3117.6486</v>
+      </c>
+      <c r="K8" s="17">
+        <v>3319.3375999999998</v>
+      </c>
+      <c r="P8" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>221.08</v>
+      </c>
+      <c r="T8" s="12">
+        <v>4</v>
+      </c>
+      <c r="U8" s="17">
+        <v>3.161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="22">
+        <v>713.16499999999996</v>
+      </c>
+      <c r="C9" s="16">
+        <f>B9/60/60/24</f>
+        <v>8.2542245370370373E-3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <v>3005.2494000000002</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3538.8685</v>
+      </c>
+      <c r="J9" s="17">
+        <v>3106.4117999999999</v>
+      </c>
+      <c r="K9" s="17">
+        <v>3216.8326999999999</v>
+      </c>
+      <c r="P9" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>240.23500000000001</v>
+      </c>
+      <c r="T9" s="12">
+        <v>5</v>
+      </c>
+      <c r="U9" s="17">
+        <v>3.2360000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>3006.433</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3593.2633000000001</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2933.7282</v>
+      </c>
+      <c r="K10" s="17">
+        <v>3413.4629</v>
+      </c>
+      <c r="P10" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>252.62899999999999</v>
+      </c>
+      <c r="T10" s="12">
+        <v>6</v>
+      </c>
+      <c r="U10" s="17">
+        <v>3.1539999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="F11" s="12">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>3037.6460000000002</v>
+      </c>
+      <c r="I11" s="17">
+        <v>3455.0556999999999</v>
+      </c>
+      <c r="J11" s="17">
+        <v>3002.6997999999999</v>
+      </c>
+      <c r="K11" s="17">
+        <v>3378.7970999999998</v>
+      </c>
+      <c r="P11" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>254.74600000000001</v>
+      </c>
+      <c r="T11" s="12">
+        <v>7</v>
+      </c>
+      <c r="U11" s="17">
+        <v>3.1219999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="F12" s="12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>3031.5997000000002</v>
+      </c>
+      <c r="I12" s="17">
+        <v>3486.6414</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2971.3015999999998</v>
+      </c>
+      <c r="K12" s="17">
+        <v>3356.1219999999998</v>
+      </c>
+      <c r="P12" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>265.46300000000002</v>
+      </c>
+      <c r="T12" s="12">
+        <v>8</v>
+      </c>
+      <c r="U12" s="17">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="F13" s="12">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>3018.8796000000002</v>
+      </c>
+      <c r="I13" s="17">
+        <v>3519.7595000000001</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2976.5189999999998</v>
+      </c>
+      <c r="K13" s="17">
+        <v>3356.9883</v>
+      </c>
+      <c r="P13" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>267.87799999999999</v>
+      </c>
+      <c r="T13" s="12">
+        <v>9</v>
+      </c>
+      <c r="U13" s="17">
+        <v>3.4620000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>572.99900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19">
+        <v>2892.3793999999998</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2930.2069000000001</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2968.8368</v>
+      </c>
+      <c r="P18" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>632.05899999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="21">
+        <v>2854.569</v>
+      </c>
+      <c r="I19" s="17">
+        <v>2938.9209000000001</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2967.0592999999999</v>
+      </c>
+      <c r="K19" s="17">
+        <v>2972.6895</v>
+      </c>
+      <c r="P19" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>649.72799999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="12">
+        <v>3</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17">
+        <v>3023.962</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3298.4965000000002</v>
+      </c>
+      <c r="J20" s="17">
+        <v>2962.7022999999999</v>
+      </c>
+      <c r="K20" s="17">
+        <v>3377.3800999999999</v>
+      </c>
+      <c r="P20" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>737.798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="12">
+        <v>4</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17">
+        <v>2949.8917000000001</v>
+      </c>
+      <c r="I21" s="17">
+        <v>3690.99</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3036.1154999999999</v>
+      </c>
+      <c r="K21" s="17">
+        <v>3618.0066999999999</v>
+      </c>
+      <c r="P21" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>767.78499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="12">
+        <v>5</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
+        <v>2978.7330000000002</v>
+      </c>
+      <c r="I22" s="17">
+        <v>3999.9092999999998</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2881.9553999999998</v>
+      </c>
+      <c r="K22" s="17">
+        <v>3632.2928999999999</v>
+      </c>
+      <c r="P22" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>751.91499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="12">
+        <v>6</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
+        <v>2950.8757000000001</v>
+      </c>
+      <c r="I23" s="17">
+        <v>3920.8984999999998</v>
+      </c>
+      <c r="J23" s="17">
+        <v>2970.5527999999999</v>
+      </c>
+      <c r="K23" s="17">
+        <v>3546.5821999999998</v>
+      </c>
+      <c r="P23" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>749.35599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="12">
+        <v>7</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
+        <v>3099.6822000000002</v>
+      </c>
+      <c r="I24" s="17">
+        <v>3665.9522000000002</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2991.4625000000001</v>
+      </c>
+      <c r="K24" s="17">
+        <v>3545.9722000000002</v>
+      </c>
+      <c r="P24" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>737.84500000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="12">
+        <v>8</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17">
+        <v>3112.5025999999998</v>
+      </c>
+      <c r="I25" s="17">
+        <v>3679.3458999999998</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2883.4358999999999</v>
+      </c>
+      <c r="K25" s="17">
+        <v>3560.6932000000002</v>
+      </c>
+      <c r="P25" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>734.69799999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="12">
+        <v>9</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="19">
+        <v>2162.8265000000001</v>
+      </c>
+      <c r="I26" s="17">
+        <v>3690.8130999999998</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2903.4171000000001</v>
+      </c>
+      <c r="K26" s="17">
+        <v>3554.5709000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19">
+        <v>4670.24</v>
+      </c>
+      <c r="J31" s="19">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K31" s="19">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="12">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="17">
+        <v>4745.7537000000002</v>
+      </c>
+      <c r="I32" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J32" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K32" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F33" s="12">
+        <v>3</v>
+      </c>
+      <c r="G33" s="24"/>
+      <c r="H33" s="17">
+        <v>4722.8508000000002</v>
+      </c>
+      <c r="I33" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J33" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K33" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F34" s="12">
+        <v>4</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="17">
+        <v>4675.3899000000001</v>
+      </c>
+      <c r="I34" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J34" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K34" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F35" s="12">
+        <v>5</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="17">
+        <v>4671.7627000000002</v>
+      </c>
+      <c r="I35" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J35" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K35" s="17"/>
+    </row>
+    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F36" s="12">
+        <v>6</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="17">
+        <v>4669.1944000000003</v>
+      </c>
+      <c r="I36" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J36" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K36" s="17"/>
+    </row>
+    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F37" s="12">
+        <v>7</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19">
+        <v>4669.1723000000002</v>
+      </c>
+      <c r="I37" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J37" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K37" s="17"/>
+    </row>
+    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F38" s="12">
+        <v>8</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="17">
+        <v>4673.4934000000003</v>
+      </c>
+      <c r="I38" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J38" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F39" s="12">
+        <v>9</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="17">
+        <v>4677.9359000000004</v>
+      </c>
+      <c r="I39" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J39" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K39" s="17"/>
+    </row>
+    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="G42" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="19">
+        <v>4368.8666999999996</v>
+      </c>
+      <c r="J44" s="19">
+        <v>4469.2611999999999</v>
+      </c>
+      <c r="K44" s="19">
+        <v>4374.6346999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F45" s="12">
+        <v>2</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="17">
+        <v>5123.6818000000003</v>
+      </c>
+      <c r="I45" s="17">
+        <v>4777.585</v>
+      </c>
+      <c r="J45" s="17">
+        <v>4476.1656999999996</v>
+      </c>
+      <c r="K45" s="17">
+        <v>4751.2615999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F46" s="12">
+        <v>3</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="17">
+        <v>4801.7353000000003</v>
+      </c>
+      <c r="I46" s="17">
+        <v>5113.7151999999996</v>
+      </c>
+      <c r="J46" s="17">
+        <v>5217.1566999999995</v>
+      </c>
+      <c r="K46" s="17">
+        <v>5154.7103999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F47" s="12">
+        <v>4</v>
+      </c>
+      <c r="G47" s="20"/>
+      <c r="H47" s="17">
+        <v>4821.4952999999996</v>
+      </c>
+      <c r="I47" s="17">
+        <v>5612.4866000000002</v>
+      </c>
+      <c r="J47" s="17">
+        <v>5138.7891</v>
+      </c>
+      <c r="K47" s="17">
+        <v>5654.3379999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F48" s="12">
+        <v>5</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19">
+        <v>4684.1733999999997</v>
+      </c>
+      <c r="I48" s="17">
+        <v>5591.9276</v>
+      </c>
+      <c r="J48" s="17">
+        <v>5704.6785</v>
+      </c>
+      <c r="K48" s="17">
+        <v>6134.7632000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="12">
+        <v>6</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="17">
+        <v>4798.7318999999998</v>
+      </c>
+      <c r="I49" s="17">
+        <v>5828.7683999999999</v>
+      </c>
+      <c r="J49" s="17">
+        <v>5881.2826999999997</v>
+      </c>
+      <c r="K49" s="17">
+        <v>6540.5905000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="12">
+        <v>7</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="17">
+        <v>4934.8059000000003</v>
+      </c>
+      <c r="I50" s="17">
+        <v>5925.7739000000001</v>
+      </c>
+      <c r="J50" s="17">
+        <v>6452.8892999999998</v>
+      </c>
+      <c r="K50" s="17">
+        <v>6526.3330999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="12">
+        <v>8</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="17">
+        <v>5166.6737000000003</v>
+      </c>
+      <c r="I51" s="17">
+        <v>6087.1574000000001</v>
+      </c>
+      <c r="J51" s="17">
+        <v>6485.1023999999998</v>
+      </c>
+      <c r="K51" s="17">
+        <v>6613.8858</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="12">
+        <v>9</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="17">
+        <v>4894.1741000000002</v>
+      </c>
+      <c r="I52" s="17">
+        <v>6120.5816000000004</v>
+      </c>
+      <c r="J52" s="17">
+        <v>6513.3662000000004</v>
+      </c>
+      <c r="K52" s="17">
+        <v>6633.0402999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G29:K29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3193C8-EB99-41EF-BB0C-E7525732AF65}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
@@ -11891,7 +16694,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F8671-37B5-4360-8FC2-FA32C0D1EE3B}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -11915,8 +16718,8 @@
       <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">

--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0C6796-4D73-479E-9862-22D4D2B1F812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621ED8A-BB05-4477-98EE-65D1D9943873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15578,8 +15578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD0F102-3DC7-4C51-AC7B-A274D668D3C9}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2621ED8A-BB05-4477-98EE-65D1D9943873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD2001-AC05-457D-A4B5-0412CE118BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15578,8 +15578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD0F102-3DC7-4C51-AC7B-A274D668D3C9}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16403,7 +16403,9 @@
       <c r="J35" s="17">
         <v>4672.5563000000002</v>
       </c>
-      <c r="K35" s="17"/>
+      <c r="K35" s="17">
+        <v>4670.24</v>
+      </c>
     </row>
     <row r="36" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F36" s="12">
@@ -16419,7 +16421,9 @@
       <c r="J36" s="17">
         <v>4672.5563000000002</v>
       </c>
-      <c r="K36" s="17"/>
+      <c r="K36" s="17">
+        <v>4670.24</v>
+      </c>
     </row>
     <row r="37" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F37" s="12">
@@ -16435,7 +16439,9 @@
       <c r="J37" s="17">
         <v>4672.5563000000002</v>
       </c>
-      <c r="K37" s="17"/>
+      <c r="K37" s="17">
+        <v>4670.24</v>
+      </c>
     </row>
     <row r="38" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F38" s="12">
@@ -16451,7 +16457,9 @@
       <c r="J38" s="17">
         <v>4672.5563000000002</v>
       </c>
-      <c r="K38" s="17"/>
+      <c r="K38" s="17">
+        <v>4670.24</v>
+      </c>
     </row>
     <row r="39" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F39" s="12">
@@ -16467,7 +16475,9 @@
       <c r="J39" s="17">
         <v>4672.5563000000002</v>
       </c>
-      <c r="K39" s="17"/>
+      <c r="K39" s="17">
+        <v>4670.24</v>
+      </c>
     </row>
     <row r="41" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F41" t="s">

--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFD2001-AC05-457D-A4B5-0412CE118BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EE04D-70C2-42D5-B25D-0E9E30D48192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ONS" sheetId="1" r:id="rId1"/>
@@ -14466,8 +14466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40FD8F-5C3D-4EB1-93FA-CACCEB2825E4}">
   <dimension ref="A2:V52"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14476,8 +14476,7 @@
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="10" bestFit="1" customWidth="1"/>
@@ -15578,7 +15577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD0F102-3DC7-4C51-AC7B-A274D668D3C9}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>

--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668EE04D-70C2-42D5-B25D-0E9E30D48192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337FCB9-6625-47EB-9778-C726A3A63E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ONS" sheetId="1" r:id="rId1"/>
-    <sheet name="Decomposition tests" sheetId="2" r:id="rId2"/>
-    <sheet name="Decomposition tests - 2019" sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId5"/>
+    <sheet name="ONS_Train" sheetId="7" r:id="rId1"/>
+    <sheet name="ONS_Test" sheetId="6" r:id="rId2"/>
+    <sheet name="ONS" sheetId="1" r:id="rId3"/>
+    <sheet name="Decomposition tests" sheetId="2" r:id="rId4"/>
+    <sheet name="Decomposition tests - 2019" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="342">
   <si>
     <t>Methods</t>
   </si>
@@ -237,6 +239,832 @@
   </si>
   <si>
     <t>2015-2018 + 2019</t>
+  </si>
+  <si>
+    <t>hyper</t>
+  </si>
+  <si>
+    <t>2.51 (+- 2.09)</t>
+  </si>
+  <si>
+    <t>2.54 (+- 2.14)</t>
+  </si>
+  <si>
+    <t>2.49 (+- 2.09)</t>
+  </si>
+  <si>
+    <t>1564.9 (+- 1246.9)</t>
+  </si>
+  <si>
+    <t>0.434 (+- 0.9387)</t>
+  </si>
+  <si>
+    <t>2885.4 (+- 1940.2)</t>
+  </si>
+  <si>
+    <t>2543.2 (+- 1664.0)</t>
+  </si>
+  <si>
+    <t>4.19 (+- 3.07)</t>
+  </si>
+  <si>
+    <t>4.29 (+- 3.15)</t>
+  </si>
+  <si>
+    <t>4.14 (+- 2.91)</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Hyperparameters
+Tuning</t>
+  </si>
+  <si>
+    <t>1931.8 (+- 1511.3)</t>
+  </si>
+  <si>
+    <t>0.7447 (+- 0.4029)</t>
+  </si>
+  <si>
+    <t>0.7447 (+- 0.403)</t>
+  </si>
+  <si>
+    <t>0.8607 (+- 0.213)</t>
+  </si>
+  <si>
+    <t>2477.8 (+- 1771.8)</t>
+  </si>
+  <si>
+    <t>1925.3 (+- 1296.8)</t>
+  </si>
+  <si>
+    <t>3.02 (+- 1.93)</t>
+  </si>
+  <si>
+    <t>3.08 (+- 2.05)</t>
+  </si>
+  <si>
+    <t>3.03 (+- 1.90)</t>
+  </si>
+  <si>
+    <t>0.6183 (+- 0.5736)</t>
+  </si>
+  <si>
+    <t>2333.2 (+- 1552.0)</t>
+  </si>
+  <si>
+    <t>1948.4 (+- 1344.9)</t>
+  </si>
+  <si>
+    <t>3.09 (+- 2.14)</t>
+  </si>
+  <si>
+    <t>3.12 (+- 2.17)</t>
+  </si>
+  <si>
+    <t>3.10 (+- 2.15)</t>
+  </si>
+  <si>
+    <t>0.8269 (+- 0.2251)</t>
+  </si>
+  <si>
+    <t>2892.4 (+- 1766.9)</t>
+  </si>
+  <si>
+    <t>2262.3 (+- 1381.6)</t>
+  </si>
+  <si>
+    <t>3.55 (+- 2.05)</t>
+  </si>
+  <si>
+    <t>3.61 (+- 2.15)</t>
+  </si>
+  <si>
+    <t>3.59 (+- 2.00)</t>
+  </si>
+  <si>
+    <t>0.5594 (+- 0.7422)</t>
+  </si>
+  <si>
+    <t>2601.7 (+- 1576.4)</t>
+  </si>
+  <si>
+    <t>2174.9 (+- 1244.0)</t>
+  </si>
+  <si>
+    <t>3.51 (+- 2.16)</t>
+  </si>
+  <si>
+    <t>3.59 (+- 2.25)</t>
+  </si>
+  <si>
+    <t>3.49 (+- 2.07)</t>
+  </si>
+  <si>
+    <t>0.8511 (+- 0.1927)</t>
+  </si>
+  <si>
+    <t>2682.0 (+- 1649.3)</t>
+  </si>
+  <si>
+    <t>2107.1 (+- 1276.8)</t>
+  </si>
+  <si>
+    <t>3.31 (+- 1.88)</t>
+  </si>
+  <si>
+    <t>3.34 (+- 1.99)</t>
+  </si>
+  <si>
+    <t>3.32 (+- 1.86)</t>
+  </si>
+  <si>
+    <t>0.6088 (+- 0.6339)</t>
+  </si>
+  <si>
+    <t>0.6304 (+- 0.4763)</t>
+  </si>
+  <si>
+    <t>0.8480 (+- 0.1922)</t>
+  </si>
+  <si>
+    <t>2704.8734 (+- 1663.0083)</t>
+  </si>
+  <si>
+    <t>2107.2186 (+- 1257.9781)</t>
+  </si>
+  <si>
+    <t>3.3085 (+- 1.8586)</t>
+  </si>
+  <si>
+    <t>3.3408 (+- 1.9559)</t>
+  </si>
+  <si>
+    <t>3.3161 (+- 1.8314)</t>
+  </si>
+  <si>
+    <t>0.8315 (+- 0.1868)</t>
+  </si>
+  <si>
+    <t>2918.8232 (+- 1612.5824)</t>
+  </si>
+  <si>
+    <t>2319.0686 (+- 1293.4831)</t>
+  </si>
+  <si>
+    <t>3.6479 (+- 1.9070)</t>
+  </si>
+  <si>
+    <t>3.6962 (+- 1.9857)</t>
+  </si>
+  <si>
+    <t>3.6829 (+- 1.8773)</t>
+  </si>
+  <si>
+    <t>0.6331 (+- 0.5212)</t>
+  </si>
+  <si>
+    <t>0.8174 (+- 0.2426)</t>
+  </si>
+  <si>
+    <t>2968.8368 (+- 1808.8549)</t>
+  </si>
+  <si>
+    <t>2315.6930 (+- 1365.1301)</t>
+  </si>
+  <si>
+    <t>3.6422 (+- 2.0180)</t>
+  </si>
+  <si>
+    <t>3.6892 (+- 2.1431)</t>
+  </si>
+  <si>
+    <t>3.6605 (+- 1.9663)</t>
+  </si>
+  <si>
+    <t>0.6126 (+- 0.5716)</t>
+  </si>
+  <si>
+    <t>0.8494 (+- 0.1780)</t>
+  </si>
+  <si>
+    <t>2743.0751 (+- 1571.4791)</t>
+  </si>
+  <si>
+    <t>2146.2602 (+- 1218.2175)</t>
+  </si>
+  <si>
+    <t>3.3720 (+- 1.7872)</t>
+  </si>
+  <si>
+    <t>3.3940 (+- 1.8795)</t>
+  </si>
+  <si>
+    <t>3.3772 (+- 1.7679)</t>
+  </si>
+  <si>
+    <t>0.6342 (+- 0.5247)</t>
+  </si>
+  <si>
+    <t>0.8201 (+- 0.2474)</t>
+  </si>
+  <si>
+    <t>2922.8930 (+- 1845.0402)</t>
+  </si>
+  <si>
+    <t>2247.9086 (+- 1377.2053)</t>
+  </si>
+  <si>
+    <t>3.5332 (+- 2.0392)</t>
+  </si>
+  <si>
+    <t>3.5858 (+- 2.1640)</t>
+  </si>
+  <si>
+    <t>3.5557 (+- 1.9826)</t>
+  </si>
+  <si>
+    <t>0.6576 (+- 0.4456)</t>
+  </si>
+  <si>
+    <t>0.8364 (+- 0.1759)</t>
+  </si>
+  <si>
+    <t>2881.9554 (+- 1546.7321)</t>
+  </si>
+  <si>
+    <t>2271.6623 (+- 1256.6090)</t>
+  </si>
+  <si>
+    <t>3.5745 (+- 1.8445)</t>
+  </si>
+  <si>
+    <t>3.6152 (+- 1.9067)</t>
+  </si>
+  <si>
+    <t>3.6146 (+- 1.8259)</t>
+  </si>
+  <si>
+    <t>0.6574 (+- 0.4292)</t>
+  </si>
+  <si>
+    <t>0.8378 (+- 0.1741)</t>
+  </si>
+  <si>
+    <t>2883.5264 (+- 1517.4997)</t>
+  </si>
+  <si>
+    <t>2272.3269 (+- 1237.9770)</t>
+  </si>
+  <si>
+    <t>3.5774 (+- 1.8163)</t>
+  </si>
+  <si>
+    <t>3.6200 (+- 1.8856)</t>
+  </si>
+  <si>
+    <t>3.6137 (+- 1.7981)</t>
+  </si>
+  <si>
+    <t>2193.4 (+- 1697.9)</t>
+  </si>
+  <si>
+    <t>1899.9 (+- 1520.9)</t>
+  </si>
+  <si>
+    <t>3.06 (+- 2.55)</t>
+  </si>
+  <si>
+    <t>3.14 (+- 2.65)</t>
+  </si>
+  <si>
+    <t>3.11 (+- 2.60)</t>
+  </si>
+  <si>
+    <t>2603.4 (+- 1335.4)</t>
+  </si>
+  <si>
+    <t>2321.7 (+- 1202.5)</t>
+  </si>
+  <si>
+    <t>3.76 (+- 2.20)</t>
+  </si>
+  <si>
+    <t>3.85 (+- 2.31)</t>
+  </si>
+  <si>
+    <t>3.76 (+- 2.16)</t>
+  </si>
+  <si>
+    <t>2344.0 (+- 1524.2)</t>
+  </si>
+  <si>
+    <t>1966.0 (+- 1333.4)</t>
+  </si>
+  <si>
+    <t>3.12 (+- 2.12)</t>
+  </si>
+  <si>
+    <t>3.16 (+- 2.14)</t>
+  </si>
+  <si>
+    <t>3.12 (+- 2.11)</t>
+  </si>
+  <si>
+    <t>2588.2 (+- 1284.1)</t>
+  </si>
+  <si>
+    <t>2219.8 (+- 1124.4)</t>
+  </si>
+  <si>
+    <t>3.55 (+- 1.84)</t>
+  </si>
+  <si>
+    <t>3.63 (+- 1.91)</t>
+  </si>
+  <si>
+    <t>3.54 (+- 1.81)</t>
+  </si>
+  <si>
+    <t>2308.9 (+- 1588.5)</t>
+  </si>
+  <si>
+    <t>1954.8 (+- 1405.9)</t>
+  </si>
+  <si>
+    <t>3.10 (+- 2.24)</t>
+  </si>
+  <si>
+    <t>3.13 (+- 2.26)</t>
+  </si>
+  <si>
+    <t>2443.8 (+- 1396.7)</t>
+  </si>
+  <si>
+    <t>2053.6 (+- 1203.9)</t>
+  </si>
+  <si>
+    <t>3.23 (+- 1.91)</t>
+  </si>
+  <si>
+    <t>3.31 (+- 1.98)</t>
+  </si>
+  <si>
+    <t>3.26 (+- 1.90)</t>
+  </si>
+  <si>
+    <t>2510.3 (+- 1303.0)</t>
+  </si>
+  <si>
+    <t>2111.9 (+- 1128.0)</t>
+  </si>
+  <si>
+    <t>3.33 (+- 1.80)</t>
+  </si>
+  <si>
+    <t>3.41 (+- 1.86)</t>
+  </si>
+  <si>
+    <t>3.36 (+- 1.78)</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>0.5516 (+- 0.7634)</t>
+  </si>
+  <si>
+    <t>2572.3458 (+- 1756.4996)</t>
+  </si>
+  <si>
+    <t>2222.2754 (+- 1557.6472)</t>
+  </si>
+  <si>
+    <t>3.5291 (+- 2.5348)</t>
+  </si>
+  <si>
+    <t>3.5586 (+- 2.5329)</t>
+  </si>
+  <si>
+    <t>3.5263 (+- 2.5169)</t>
+  </si>
+  <si>
+    <t>0.8236 (+- 0.2464)</t>
+  </si>
+  <si>
+    <t>2916.1487 (+- 1761.3334)</t>
+  </si>
+  <si>
+    <t>2271.3018 (+- 1354.1870)</t>
+  </si>
+  <si>
+    <t>3.5788 (+- 2.0163)</t>
+  </si>
+  <si>
+    <t>3.6367 (+- 2.1841)</t>
+  </si>
+  <si>
+    <t>3.5815 (+- 1.9742)</t>
+  </si>
+  <si>
+    <t>0.8565 (+- 0.1698)</t>
+  </si>
+  <si>
+    <t>2608.5233 (+- 1566.9191)</t>
+  </si>
+  <si>
+    <t>2105.6969 (+- 1274.0319)</t>
+  </si>
+  <si>
+    <t>3.3099 (+- 1.8905)</t>
+  </si>
+  <si>
+    <t>3.3610 (+- 1.9746)</t>
+  </si>
+  <si>
+    <t>3.3436 (+- 1.8980)</t>
+  </si>
+  <si>
+    <t>0.5797 (+- 0.4921)</t>
+  </si>
+  <si>
+    <t>2861.1228 (+- 1835.1867)</t>
+  </si>
+  <si>
+    <t>2480.8483 (+- 1632.3110)</t>
+  </si>
+  <si>
+    <t>3.9657 (+- 2.6463)</t>
+  </si>
+  <si>
+    <t>3.9602 (+- 2.6601)</t>
+  </si>
+  <si>
+    <t>3.9550 (+- 2.6109)</t>
+  </si>
+  <si>
+    <t>0.6354 (+- 0.4575)</t>
+  </si>
+  <si>
+    <t>2584.3916 (+- 1568.2206)</t>
+  </si>
+  <si>
+    <t>2219.7519 (+- 1400.2827)</t>
+  </si>
+  <si>
+    <t>3.5445 (+- 2.2691)</t>
+  </si>
+  <si>
+    <t>3.5402 (+- 2.2266)</t>
+  </si>
+  <si>
+    <t>3.5424 (+- 2.2625)</t>
+  </si>
+  <si>
+    <t>0.8262 (+- 0.1782)</t>
+  </si>
+  <si>
+    <t>2975.7246 (+- 1644.5288)</t>
+  </si>
+  <si>
+    <t>2337.3852 (+- 1280.1179)</t>
+  </si>
+  <si>
+    <t>3.6734 (+- 1.8904)</t>
+  </si>
+  <si>
+    <t>3.7063 (+- 1.9369)</t>
+  </si>
+  <si>
+    <t>3.7081 (+- 1.8619)</t>
+  </si>
+  <si>
+    <t>0.8230 (+- 0.2097)</t>
+  </si>
+  <si>
+    <t>3029.1377 (+- 1576.1848)</t>
+  </si>
+  <si>
+    <t>2352.7338 (+- 1198.5889)</t>
+  </si>
+  <si>
+    <t>3.7105 (+- 1.7537)</t>
+  </si>
+  <si>
+    <t>3.7775 (+- 1.8869)</t>
+  </si>
+  <si>
+    <t>3.7509 (+- 1.7098)</t>
+  </si>
+  <si>
+    <t>0.7090 (+- 0.4441)</t>
+  </si>
+  <si>
+    <t>2251.2173 (+- 1216.3092)</t>
+  </si>
+  <si>
+    <t>1905.4408 (+- 1055.8228)</t>
+  </si>
+  <si>
+    <t>3.0358 (+- 1.7620)</t>
+  </si>
+  <si>
+    <t>3.0696 (+- 1.7773)</t>
+  </si>
+  <si>
+    <t>3.0385 (+- 1.7385)</t>
+  </si>
+  <si>
+    <t>0.6084 (+- 0.5192)</t>
+  </si>
+  <si>
+    <t>2654.7680 (+- 1275.7817)</t>
+  </si>
+  <si>
+    <t>2258.8161 (+- 1048.4051)</t>
+  </si>
+  <si>
+    <t>3.6411 (+- 1.8853)</t>
+  </si>
+  <si>
+    <t>3.7221 (+- 2.0003)</t>
+  </si>
+  <si>
+    <t>3.6399 (+- 1.8764)</t>
+  </si>
+  <si>
+    <t>0.6792 (+- 0.4781)</t>
+  </si>
+  <si>
+    <t>2255.7309 (+- 1304.1663)</t>
+  </si>
+  <si>
+    <t>1936.0982 (+- 1186.2690)</t>
+  </si>
+  <si>
+    <t>3.1132 (+- 1.9880)</t>
+  </si>
+  <si>
+    <t>3.1463 (+- 2.0406)</t>
+  </si>
+  <si>
+    <t>3.0960 (+- 1.9667)</t>
+  </si>
+  <si>
+    <t>0.8152 (+- 0.1898)</t>
+  </si>
+  <si>
+    <t>3174.0704 (+- 1487.0925)</t>
+  </si>
+  <si>
+    <t>2534.4655 (+- 1173.1361)</t>
+  </si>
+  <si>
+    <t>4.0044 (+- 1.7089)</t>
+  </si>
+  <si>
+    <t>4.0553 (+- 1.8211)</t>
+  </si>
+  <si>
+    <t>4.0399 (+- 1.6871)</t>
+  </si>
+  <si>
+    <t>0.8296 (+- 0.2138)</t>
+  </si>
+  <si>
+    <t>2935.7951 (+- 1618.7915)</t>
+  </si>
+  <si>
+    <t>2305.7642 (+- 1294.0273)</t>
+  </si>
+  <si>
+    <t>3.6325 (+- 1.9116)</t>
+  </si>
+  <si>
+    <t>3.6969 (+- 2.0413)</t>
+  </si>
+  <si>
+    <t>3.6633 (+- 1.8707)</t>
+  </si>
+  <si>
+    <t>0.5825 (+- 0.7722)</t>
+  </si>
+  <si>
+    <t>2319.2544 (+- 1681.4254)</t>
+  </si>
+  <si>
+    <t>1965.0725 (+- 1443.5613)</t>
+  </si>
+  <si>
+    <t>3.1414 (+- 2.4415)</t>
+  </si>
+  <si>
+    <t>3.1875 (+- 2.4918)</t>
+  </si>
+  <si>
+    <t>3.1442 (+- 2.4145)</t>
+  </si>
+  <si>
+    <t>0.8223 (+- 0.2264)</t>
+  </si>
+  <si>
+    <t>2998.8977 (+- 1650.7572)</t>
+  </si>
+  <si>
+    <t>2307.5016 (+- 1248.9180)</t>
+  </si>
+  <si>
+    <t>3.6398 (+- 1.8462)</t>
+  </si>
+  <si>
+    <t>3.6999 (+- 2.0027)</t>
+  </si>
+  <si>
+    <t>3.6720 (+- 1.8023)</t>
+  </si>
+  <si>
+    <t>0.5872 (+- 0.6962)</t>
+  </si>
+  <si>
+    <t>2511.0259 (+- 1599.8823)</t>
+  </si>
+  <si>
+    <t>2144.2444 (+- 1372.4431)</t>
+  </si>
+  <si>
+    <t>3.4711 (+- 2.3373)</t>
+  </si>
+  <si>
+    <t>3.5495 (+- 2.4590)</t>
+  </si>
+  <si>
+    <t>3.4434 (+- 2.3111)</t>
+  </si>
+  <si>
+    <t>0.8486 (+- 0.1972)</t>
+  </si>
+  <si>
+    <t>2755.4982 (+- 1570.0418)</t>
+  </si>
+  <si>
+    <t>2203.9476 (+- 1240.0451)</t>
+  </si>
+  <si>
+    <t>3.4768 (+- 1.8354)</t>
+  </si>
+  <si>
+    <t>3.5426 (+- 1.9562)</t>
+  </si>
+  <si>
+    <t>3.5026 (+- 1.8142)</t>
+  </si>
+  <si>
+    <t>0.6462 (+- 0.4056)</t>
+  </si>
+  <si>
+    <t>2627.6570 (+- 1229.5316)</t>
+  </si>
+  <si>
+    <t>2182.1430 (+- 1078.7024)</t>
+  </si>
+  <si>
+    <t>3.5180 (+- 1.9022)</t>
+  </si>
+  <si>
+    <t>3.5647 (+- 2.0220)</t>
+  </si>
+  <si>
+    <t>3.4975 (+- 1.9160)</t>
+  </si>
+  <si>
+    <t>0.7830 (+- 0.2460)</t>
+  </si>
+  <si>
+    <t>3410.8101 (+- 1634.6971)</t>
+  </si>
+  <si>
+    <t>2728.6148 (+- 1270.4332)</t>
+  </si>
+  <si>
+    <t>4.3243 (+- 1.8821)</t>
+  </si>
+  <si>
+    <t>4.3933 (+- 2.0400)</t>
+  </si>
+  <si>
+    <t>4.3512 (+- 1.8156)</t>
+  </si>
+  <si>
+    <t>0.6122 (+- 0.4406)</t>
+  </si>
+  <si>
+    <t>2748.3855 (+- 1244.1067)</t>
+  </si>
+  <si>
+    <t>2316.5103 (+- 1046.9788)</t>
+  </si>
+  <si>
+    <t>3.7216 (+- 1.8446)</t>
+  </si>
+  <si>
+    <t>3.7705 (+- 1.9461)</t>
+  </si>
+  <si>
+    <t>3.7044 (+- 1.8470)</t>
+  </si>
+  <si>
+    <t>0.7870 (+- 0.2642)</t>
+  </si>
+  <si>
+    <t>3314.9256 (+- 1728.5361)</t>
+  </si>
+  <si>
+    <t>2653.4923 (+- 1287.3351)</t>
+  </si>
+  <si>
+    <t>4.2038 (+- 1.9170)</t>
+  </si>
+  <si>
+    <t>4.2996 (+- 2.0970)</t>
+  </si>
+  <si>
+    <t>4.2266 (+- 1.8514)</t>
+  </si>
+  <si>
+    <t>0.7012 (+- 0.4680)</t>
+  </si>
+  <si>
+    <t>2241.1686 (+- 1242.6860)</t>
+  </si>
+  <si>
+    <t>1886.8087 (+- 1072.1443)</t>
+  </si>
+  <si>
+    <t>3.0259 (+- 1.8404)</t>
+  </si>
+  <si>
+    <t>3.0665 (+- 1.8463)</t>
+  </si>
+  <si>
+    <t>3.0361 (+- 1.8296)</t>
+  </si>
+  <si>
+    <t>0.8240 (+- 0.2038)</t>
+  </si>
+  <si>
+    <t>3029.9524 (+- 1543.7406)</t>
+  </si>
+  <si>
+    <t>2374.8075 (+- 1163.0000)</t>
+  </si>
+  <si>
+    <t>3.7477 (+- 1.6994)</t>
+  </si>
+  <si>
+    <t>3.8148 (+- 1.8232)</t>
+  </si>
+  <si>
+    <t>3.7899 (+- 1.6557)</t>
+  </si>
+  <si>
+    <t>-0.3404 (+- 1.6068)</t>
+  </si>
+  <si>
+    <t>5359.5101 (+- 2942.1797)</t>
+  </si>
+  <si>
+    <t>4518.2738 (+- 2718.9008)</t>
+  </si>
+  <si>
+    <t>7.1654 (+- 4.3671)</t>
+  </si>
+  <si>
+    <t>7.3191 (+- 4.7230)</t>
+  </si>
+  <si>
+    <t>6.9675 (+- 4.0177)</t>
+  </si>
+  <si>
+    <t>0.6879 (+- 0.1503)</t>
+  </si>
+  <si>
+    <t>4368.8667 (+- 1041.3089)</t>
+  </si>
+  <si>
+    <t>3564.7768 (+- 1041.7285)</t>
+  </si>
+  <si>
+    <t>5.7003 (+- 1.6444)</t>
+  </si>
+  <si>
+    <t>5.8046 (+- 1.7225)</t>
+  </si>
+  <si>
+    <t>5.8488 (+- 1.8289)</t>
   </si>
 </sst>
 </file>
@@ -294,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +1186,32 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3455,7 +4309,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3476,12 +4330,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$H$5:$H$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$5:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="2">
-                  <c:v>2339.5880999999999</c:v>
+                  <c:v>2998.8977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3497,7 +4351,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$I$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3518,33 +4372,33 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$I$5:$I$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$5:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>2245.4712</c:v>
+                  <c:v>2916.1487000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2263.1905000000002</c:v>
+                  <c:v>3022.0349999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2226.6338000000001</c:v>
+                  <c:v>3021.7800999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2237.6957000000002</c:v>
+                  <c:v>3005.2494000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2255.5227</c:v>
+                  <c:v>3006.433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2212.9043999999999</c:v>
+                  <c:v>3037.6460000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2172.6035999999999</c:v>
+                  <c:v>3031.5997000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2229.6559000000002</c:v>
+                  <c:v>3018.8796000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3560,7 +4414,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$J$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3571,7 +4425,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3581,36 +4435,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$J$5:$J$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2392.4740999999999</c:v>
+                  <c:v>3029.1377000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2549.5826000000002</c:v>
+                  <c:v>3233.2348000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2617.0545999999999</c:v>
+                  <c:v>3252.2988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2738.9404</c:v>
+                  <c:v>3328.0574000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2863.1176</c:v>
+                  <c:v>3538.8685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2615.3501999999999</c:v>
+                  <c:v>3593.2633000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2645.4497000000001</c:v>
+                  <c:v>3455.0556999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2596.8231000000001</c:v>
+                  <c:v>3486.6414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2612.0072</c:v>
+                  <c:v>3519.7595000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3626,7 +4480,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$K$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3647,36 +4501,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$K$5:$K$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$5:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2372.7037999999998</c:v>
+                  <c:v>3007.9765000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2253.3438000000001</c:v>
+                  <c:v>2975.0403999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2407.4582999999998</c:v>
+                  <c:v>3139.1694000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2420.4529000000002</c:v>
+                  <c:v>3117.6486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2457.5909999999999</c:v>
+                  <c:v>3106.4117999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2335.8357999999998</c:v>
+                  <c:v>2933.7282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2341.8168000000001</c:v>
+                  <c:v>3002.6997999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2172.4454999999998</c:v>
+                  <c:v>2971.3015999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3562.1704</c:v>
+                  <c:v>2976.5189999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,11 +4542,11 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$L$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3703,7 +4557,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3713,43 +4567,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$L$5:$L$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$5:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2313.1725000000001</c:v>
+                  <c:v>2961.8478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2415.0837999999999</c:v>
+                  <c:v>3156.7096999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2519.4225000000001</c:v>
+                  <c:v>3236.1898000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2776.2660999999998</c:v>
+                  <c:v>3319.3375999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2594.5520999999999</c:v>
+                  <c:v>3216.8326999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2769.5900999999999</c:v>
+                  <c:v>3413.4629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2579.7912000000001</c:v>
+                  <c:v>3378.7970999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2532.4270999999999</c:v>
+                  <c:v>3356.1219999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2526.4198000000001</c:v>
+                  <c:v>3356.9883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-0971-471B-8B2F-293903FFA473}"/>
+              <c16:uniqueId val="{00000001-954E-49C2-BBC7-04E974A7FA95}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3780,7 +4634,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3793,7 +4647,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -3815,7 +4669,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3852,7 +4706,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3879,7 +4733,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3600"/>
-          <c:min val="2000"/>
+          <c:min val="2800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3904,7 +4758,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3917,7 +4771,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" b="1">
+                  <a:rPr lang="en-US" sz="1400" b="1">
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
@@ -3939,7 +4793,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3973,7 +4827,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4102,7 +4956,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4123,12 +4977,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="2">
-                  <c:v>2403.3393000000001</c:v>
+                  <c:v>2918.8231999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4144,7 +4998,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4165,33 +5019,33 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$18:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>2087.5054</c:v>
+                  <c:v>2854.569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2083.8233</c:v>
+                  <c:v>3023.962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2049.7368000000001</c:v>
+                  <c:v>2949.8917000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1985.6126999999999</c:v>
+                  <c:v>2978.7330000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1982.8257000000001</c:v>
+                  <c:v>2950.8757000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2031.3905</c:v>
+                  <c:v>3099.6822000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2040.34</c:v>
+                  <c:v>3112.5025999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2108.3820999999998</c:v>
+                  <c:v>2162.8265000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4207,7 +5061,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4218,7 +5072,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4228,36 +5082,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$18:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2207.2873</c:v>
+                  <c:v>2892.3793999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2278.2395000000001</c:v>
+                  <c:v>2938.9209000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2719.9313999999999</c:v>
+                  <c:v>3298.4965000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2897.8775000000001</c:v>
+                  <c:v>3690.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3321.8616999999999</c:v>
+                  <c:v>3999.9092999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3029.4784</c:v>
+                  <c:v>3920.8984999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2977.5055000000002</c:v>
+                  <c:v>3665.9522000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2925.0524</c:v>
+                  <c:v>3679.3458999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2922.5725000000002</c:v>
+                  <c:v>3690.8130999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,7 +5127,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$K$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4284,7 +5138,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4294,36 +5148,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$18:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2237.1633999999999</c:v>
+                  <c:v>2930.2069000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2297.1839</c:v>
+                  <c:v>2967.0592999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2308.6291000000001</c:v>
+                  <c:v>2962.7022999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2324.6129000000001</c:v>
+                  <c:v>3036.1154999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2326.1549</c:v>
+                  <c:v>2881.9553999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2233.2543000000001</c:v>
+                  <c:v>2970.5527999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2252.1842000000001</c:v>
+                  <c:v>2991.4625000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2067.5255000000002</c:v>
+                  <c:v>2883.4358999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2082.5902000000001</c:v>
+                  <c:v>2903.4171000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4339,7 +5193,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4350,7 +5204,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4360,36 +5214,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$18:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2252.9481000000001</c:v>
+                  <c:v>2968.8368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2222.1786000000002</c:v>
+                  <c:v>2972.6895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2342.9792000000002</c:v>
+                  <c:v>3377.3800999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2647.0506999999998</c:v>
+                  <c:v>3618.0066999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2967.7283000000002</c:v>
+                  <c:v>3632.2928999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2804.5895</c:v>
+                  <c:v>3546.5821999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2734.0311000000002</c:v>
+                  <c:v>3545.9722000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2732.2339999999999</c:v>
+                  <c:v>3560.6932000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2668.3697999999999</c:v>
+                  <c:v>3554.5709000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4525,8 +5379,8 @@
         <c:axId val="1700753055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3400"/>
-          <c:min val="1800"/>
+          <c:max val="4200"/>
+          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4636,7 +5490,7 @@
         <c:crossAx val="1700757631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4747,7 +5601,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4768,12 +5622,12 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$H$44:$H$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$44:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="2">
-                  <c:v>4068.5992000000001</c:v>
+                <c:pt idx="3">
+                  <c:v>5280.4309999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4789,7 +5643,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$I$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4810,33 +5664,33 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$I$44:$I$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$44:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>4673.7154</c:v>
+                  <c:v>5123.6818000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3744.0219999999999</c:v>
+                  <c:v>4801.7353000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3927.3984999999998</c:v>
+                  <c:v>4821.4952999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3948.0063</c:v>
+                  <c:v>4684.1733999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3954.9625000000001</c:v>
+                  <c:v>4798.7318999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3971.9029</c:v>
+                  <c:v>4934.8059000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4089.1448</c:v>
+                  <c:v>5166.6737000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4037.1493999999998</c:v>
+                  <c:v>4894.1741000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4852,7 +5706,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$J$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4863,7 +5717,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4873,36 +5727,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$J$44:$J$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$44:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3312.4160999999999</c:v>
+                  <c:v>4368.8666999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3861.7303000000002</c:v>
+                  <c:v>4777.585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4109.3037999999997</c:v>
+                  <c:v>5113.7151999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4794.3135000000002</c:v>
+                  <c:v>5612.4866000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4948.0290999999997</c:v>
+                  <c:v>5591.9276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5125.4876000000004</c:v>
+                  <c:v>5828.7683999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5863.3380999999999</c:v>
+                  <c:v>5925.7739000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5876.5378000000001</c:v>
+                  <c:v>6087.1574000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5960.3999000000003</c:v>
+                  <c:v>6120.5816000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,7 +5772,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$K$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4929,7 +5783,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4939,36 +5793,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$K$44:$K$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$44:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3355.5754000000002</c:v>
+                  <c:v>4469.2611999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3388.1349</c:v>
+                  <c:v>4476.1656999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3838.3328999999999</c:v>
+                  <c:v>5217.1566999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4540.5003999999999</c:v>
+                  <c:v>5138.7891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4948.0290999999997</c:v>
+                  <c:v>5704.6785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5125.4876000000004</c:v>
+                  <c:v>5881.2826999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5863.3380999999999</c:v>
+                  <c:v>6452.8892999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5876.5378000000001</c:v>
+                  <c:v>6485.1023999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5960.3999000000003</c:v>
+                  <c:v>6513.3662000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4984,7 +5838,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$L$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4995,7 +5849,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -5005,36 +5859,36 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$L$44:$L$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$44:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3520.2480999999998</c:v>
+                  <c:v>4374.6346999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3703.5209</c:v>
+                  <c:v>4751.2615999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4054.8339999999998</c:v>
+                  <c:v>5154.7103999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4477.1706000000004</c:v>
+                  <c:v>5654.3379999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5163.3675999999996</c:v>
+                  <c:v>6134.7632000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5771.4120999999996</c:v>
+                  <c:v>6540.5905000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5764.3146999999999</c:v>
+                  <c:v>6526.3330999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5901.0825000000004</c:v>
+                  <c:v>6613.8858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5900.2129999999997</c:v>
+                  <c:v>6633.0402999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5170,8 +6024,8 @@
         <c:axId val="1747099743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
-          <c:min val="3000"/>
+          <c:max val="6700"/>
+          <c:min val="4200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5281,7 +6135,7 @@
         <c:crossAx val="1747081023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="250"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -13393,16 +14247,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13432,15 +14286,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>271461</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>443471</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>70876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>561974</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13469,16 +14323,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162486</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88528</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152961</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>164728</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13812,6 +14666,156 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>272143</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Graphic 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3249DA36-18C3-49DC-B9D8-E5EDFAE6A689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13130893" y="1074964"/>
+          <a:ext cx="5429250" cy="3943350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>204107</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>100693</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Graphic 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01A76C68-0796-40D7-ABCD-1E43931F303A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13062857" y="5510893"/>
+          <a:ext cx="5429250" cy="3924300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>258536</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>149678</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>167368</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>44903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Graphic 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CD5419F-6757-4A26-8254-9D3D1A024776}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13117286" y="9865178"/>
+          <a:ext cx="5419725" cy="3895725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14118,11 +15122,1914 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51675923-20BA-4943-8F44-FB76CE04C397}">
+  <dimension ref="B3:L32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="33">
+        <f>801.019-55.36</f>
+        <v>745.65899999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K5" s="34">
+        <f>1558.663-344.71</f>
+        <v>1213.953</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="34">
+        <f>15.704-1.25</f>
+        <v>14.454000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="34">
+        <f>51.764-13.44</f>
+        <v>38.324000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="34">
+        <f>14.292-1.39</f>
+        <v>12.901999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="K9" s="34">
+        <f>44.792-12.23</f>
+        <v>32.561999999999998</v>
+      </c>
+      <c r="L9" s="33"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="K10" s="34">
+        <f>13.467-1.17</f>
+        <v>12.297000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="34">
+        <f>97.853-23.5</f>
+        <v>74.352999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="K12" s="34">
+        <f>12.412-0.81</f>
+        <v>11.602</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K13" s="34">
+        <f>20.68-3</f>
+        <v>17.68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="34">
+        <f>62-17.12</f>
+        <v>44.879999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="K15" s="34">
+        <f>14.807-1.19</f>
+        <v>13.617000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="34">
+        <f>577.804-235.91</f>
+        <v>341.89400000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="K17" s="34">
+        <f>16.512-1.19</f>
+        <v>15.322000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="K18" s="34">
+        <f>2009.34-147.68</f>
+        <v>1861.6599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="K19" s="34">
+        <f>23.545-3.42</f>
+        <v>20.125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="K20" s="34">
+        <f>644.626-197.45</f>
+        <v>447.17599999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="K21" s="34">
+        <f>16.09-1.7</f>
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K22" s="34">
+        <f>247.905-78.32</f>
+        <v>169.58500000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="K23" s="34">
+        <f>23.335-3.39</f>
+        <v>19.945</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K24" s="34">
+        <f>128.78-45.28</f>
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="K25" s="34">
+        <f>12.188-0.66</f>
+        <v>11.528</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H26" t="s">
+        <v>339</v>
+      </c>
+      <c r="I26" t="s">
+        <v>340</v>
+      </c>
+      <c r="J26" t="s">
+        <v>341</v>
+      </c>
+      <c r="K26" s="34">
+        <f>40.391-0.83</f>
+        <v>39.561</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="28"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="28"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="28"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD7E598-4D5E-40AC-91C2-A94FFB49DEC1}">
+  <dimension ref="B3:O38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="33">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" s="28">
+        <v>344.71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K7" s="28">
+        <v>13.44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="K8" s="28">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K9" s="28">
+        <v>12.23</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="28">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" s="28">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="K12" s="28">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="K13" s="28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="28">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="N15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="K16" s="2">
+        <v>235.91</v>
+      </c>
+      <c r="L16" s="26"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1.19</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K18" s="2">
+        <v>147.68</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="2">
+        <v>3.42</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="K20" s="2">
+        <v>197.45</v>
+      </c>
+      <c r="N20" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="K21" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K22" s="2">
+        <v>78.319999999999993</v>
+      </c>
+      <c r="N22" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K23" s="2">
+        <v>3.39</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="K24" s="2">
+        <v>45.28</v>
+      </c>
+      <c r="N24" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K25" s="28">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="K26" s="28">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="28"/>
+      <c r="N27" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="28"/>
+      <c r="N28" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="28"/>
+      <c r="N29" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="28"/>
+      <c r="N30" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="O30" s="11"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="28"/>
+      <c r="N31" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="11"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="28"/>
+      <c r="N32" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" s="11"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="28"/>
+      <c r="N33" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" s="11"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="28"/>
+      <c r="N34" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" s="11"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="28"/>
+      <c r="N35" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="O35" s="11"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="28"/>
+      <c r="N36" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="28"/>
+      <c r="N37" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="11"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:L37"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14462,11 +17369,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C40FD8F-5C3D-4EB1-93FA-CACCEB2825E4}">
   <dimension ref="A2:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
@@ -14492,21 +17399,21 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="Q3" s="26" t="s">
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="Q3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="26"/>
-      <c r="U3" s="26" t="s">
+      <c r="R3" s="30"/>
+      <c r="U3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="26"/>
+      <c r="V3" s="30"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -14886,10 +17793,10 @@
       <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="26" t="s">
+      <c r="Q15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="26"/>
+      <c r="R15" s="30"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -14897,13 +17804,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
       <c r="P16" t="s">
         <v>55</v>
       </c>
@@ -15171,13 +18078,13 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G30" s="10" t="s">
@@ -15367,13 +18274,13 @@
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="26" t="s">
+      <c r="H42" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G43" s="10" t="s">
@@ -15573,12 +18480,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD0F102-3DC7-4C51-AC7B-A274D668D3C9}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15587,8 +18494,7 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
@@ -15615,21 +18521,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="P3" s="26" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="P3" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="T3" s="26" t="s">
+      <c r="Q3" s="30"/>
+      <c r="T3" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="26"/>
+      <c r="U3" s="30"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -15659,7 +18565,9 @@
       <c r="K4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="18"/>
+      <c r="L4" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="O4" t="s">
         <v>54</v>
       </c>
@@ -15701,6 +18609,9 @@
       <c r="K5" s="19">
         <v>2961.8478</v>
       </c>
+      <c r="L5" s="19">
+        <v>3029.9524000000001</v>
+      </c>
       <c r="P5" s="12">
         <v>1</v>
       </c>
@@ -15771,7 +18682,9 @@
       <c r="F7" s="12">
         <v>3</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="19">
+        <v>2998.8977</v>
+      </c>
       <c r="H7" s="17">
         <v>3022.0349999999999</v>
       </c>
@@ -16007,10 +18920,10 @@
       <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="26" t="s">
+      <c r="P15" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="26"/>
+      <c r="Q15" s="30"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -16018,13 +18931,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
       <c r="O16" t="s">
         <v>55</v>
       </c>
@@ -16059,6 +18972,9 @@
       <c r="K17" s="18" t="s">
         <v>55</v>
       </c>
+      <c r="L17" s="18" t="s">
+        <v>5</v>
+      </c>
       <c r="P17" s="12">
         <v>1</v>
       </c>
@@ -16086,6 +19002,9 @@
       <c r="K18" s="19">
         <v>2968.8368</v>
       </c>
+      <c r="L18" s="19">
+        <v>2922.893</v>
+      </c>
       <c r="P18" s="12">
         <v>2</v>
       </c>
@@ -16126,7 +19045,9 @@
       <c r="F20" s="12">
         <v>3</v>
       </c>
-      <c r="G20" s="17"/>
+      <c r="G20" s="19">
+        <v>2918.8231999999998</v>
+      </c>
       <c r="H20" s="17">
         <v>3023.962</v>
       </c>
@@ -16150,7 +19071,6 @@
       <c r="F21" s="12">
         <v>4</v>
       </c>
-      <c r="G21" s="17"/>
       <c r="H21" s="17">
         <v>2949.8917000000001</v>
       </c>
@@ -16290,13 +19210,13 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="26" t="s">
+      <c r="G29" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F30" s="10" t="s">
@@ -16316,6 +19236,9 @@
       </c>
       <c r="K30" s="18" t="s">
         <v>55</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -16333,6 +19256,12 @@
       <c r="K31" s="19">
         <v>4670.24</v>
       </c>
+      <c r="L31" s="19">
+        <v>4670.24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F32" s="12">
@@ -16352,11 +19281,13 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="33" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F33" s="12">
         <v>3</v>
       </c>
-      <c r="G33" s="24"/>
+      <c r="G33" s="24">
+        <v>4670.24</v>
+      </c>
       <c r="H33" s="17">
         <v>4722.8508000000002</v>
       </c>
@@ -16370,7 +19301,7 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="34" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F34" s="12">
         <v>4</v>
       </c>
@@ -16388,7 +19319,7 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="35" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F35" s="12">
         <v>5</v>
       </c>
@@ -16406,7 +19337,7 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="36" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F36" s="12">
         <v>6</v>
       </c>
@@ -16424,7 +19355,7 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="37" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F37" s="12">
         <v>7</v>
       </c>
@@ -16442,7 +19373,7 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="38" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F38" s="12">
         <v>8</v>
       </c>
@@ -16460,7 +19391,7 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="39" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F39" s="12">
         <v>9</v>
       </c>
@@ -16478,21 +19409,21 @@
         <v>4670.24</v>
       </c>
     </row>
-    <row r="41" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="G42" s="26" t="s">
+    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G42" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-    </row>
-    <row r="43" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F43" s="10" t="s">
         <v>61</v>
       </c>
@@ -16511,8 +19442,11 @@
       <c r="K43" s="18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="44" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F44" s="12">
         <v>1</v>
       </c>
@@ -16527,8 +19461,14 @@
       <c r="K44" s="19">
         <v>4374.6346999999996</v>
       </c>
-    </row>
-    <row r="45" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="19">
+        <v>4305.8090000000002</v>
+      </c>
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F45" s="12">
         <v>2</v>
       </c>
@@ -16546,7 +19486,7 @@
         <v>4751.2615999999998</v>
       </c>
     </row>
-    <row r="46" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F46" s="12">
         <v>3</v>
       </c>
@@ -16564,11 +19504,13 @@
         <v>5154.7103999999999</v>
       </c>
     </row>
-    <row r="47" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F47" s="12">
         <v>4</v>
       </c>
-      <c r="G47" s="20"/>
+      <c r="G47" s="24">
+        <v>5280.4309999999996</v>
+      </c>
       <c r="H47" s="17">
         <v>4821.4952999999996</v>
       </c>
@@ -16582,7 +19524,7 @@
         <v>5654.3379999999997</v>
       </c>
     </row>
-    <row r="48" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F48" s="12">
         <v>5</v>
       </c>
@@ -16688,12 +19630,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3193C8-EB99-41EF-BB0C-E7525732AF65}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H80" sqref="H80"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X55" sqref="X55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16703,11 +19645,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F8671-37B5-4360-8FC2-FA32C0D1EE3B}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
@@ -16727,8 +19669,8 @@
       <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">

--- a/results/results_none_10cv_training.xlsx
+++ b/results/results_none_10cv_training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F337FCB9-6625-47EB-9778-C726A3A63E69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0078B733-F0CC-45F6-972D-F472B38CB12C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ONS_Train" sheetId="7" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="ONS" sheetId="1" r:id="rId3"/>
     <sheet name="Decomposition tests" sheetId="2" r:id="rId4"/>
     <sheet name="Decomposition tests - 2019" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="343">
   <si>
     <t>Methods</t>
   </si>
@@ -392,144 +393,39 @@
     <t>0.8480 (+- 0.1922)</t>
   </si>
   <si>
-    <t>2704.8734 (+- 1663.0083)</t>
-  </si>
-  <si>
-    <t>2107.2186 (+- 1257.9781)</t>
-  </si>
-  <si>
-    <t>3.3085 (+- 1.8586)</t>
-  </si>
-  <si>
-    <t>3.3408 (+- 1.9559)</t>
-  </si>
-  <si>
-    <t>3.3161 (+- 1.8314)</t>
-  </si>
-  <si>
     <t>0.8315 (+- 0.1868)</t>
   </si>
   <si>
-    <t>2918.8232 (+- 1612.5824)</t>
-  </si>
-  <si>
-    <t>2319.0686 (+- 1293.4831)</t>
-  </si>
-  <si>
-    <t>3.6479 (+- 1.9070)</t>
-  </si>
-  <si>
-    <t>3.6962 (+- 1.9857)</t>
-  </si>
-  <si>
-    <t>3.6829 (+- 1.8773)</t>
-  </si>
-  <si>
     <t>0.6331 (+- 0.5212)</t>
   </si>
   <si>
     <t>0.8174 (+- 0.2426)</t>
   </si>
   <si>
-    <t>2968.8368 (+- 1808.8549)</t>
-  </si>
-  <si>
-    <t>2315.6930 (+- 1365.1301)</t>
-  </si>
-  <si>
-    <t>3.6422 (+- 2.0180)</t>
-  </si>
-  <si>
-    <t>3.6892 (+- 2.1431)</t>
-  </si>
-  <si>
-    <t>3.6605 (+- 1.9663)</t>
-  </si>
-  <si>
     <t>0.6126 (+- 0.5716)</t>
   </si>
   <si>
     <t>0.8494 (+- 0.1780)</t>
   </si>
   <si>
-    <t>2743.0751 (+- 1571.4791)</t>
-  </si>
-  <si>
-    <t>2146.2602 (+- 1218.2175)</t>
-  </si>
-  <si>
-    <t>3.3720 (+- 1.7872)</t>
-  </si>
-  <si>
-    <t>3.3940 (+- 1.8795)</t>
-  </si>
-  <si>
-    <t>3.3772 (+- 1.7679)</t>
-  </si>
-  <si>
     <t>0.6342 (+- 0.5247)</t>
   </si>
   <si>
     <t>0.8201 (+- 0.2474)</t>
   </si>
   <si>
-    <t>2922.8930 (+- 1845.0402)</t>
-  </si>
-  <si>
-    <t>2247.9086 (+- 1377.2053)</t>
-  </si>
-  <si>
-    <t>3.5332 (+- 2.0392)</t>
-  </si>
-  <si>
-    <t>3.5858 (+- 2.1640)</t>
-  </si>
-  <si>
-    <t>3.5557 (+- 1.9826)</t>
-  </si>
-  <si>
     <t>0.6576 (+- 0.4456)</t>
   </si>
   <si>
     <t>0.8364 (+- 0.1759)</t>
   </si>
   <si>
-    <t>2881.9554 (+- 1546.7321)</t>
-  </si>
-  <si>
-    <t>2271.6623 (+- 1256.6090)</t>
-  </si>
-  <si>
-    <t>3.5745 (+- 1.8445)</t>
-  </si>
-  <si>
-    <t>3.6152 (+- 1.9067)</t>
-  </si>
-  <si>
-    <t>3.6146 (+- 1.8259)</t>
-  </si>
-  <si>
     <t>0.6574 (+- 0.4292)</t>
   </si>
   <si>
     <t>0.8378 (+- 0.1741)</t>
   </si>
   <si>
-    <t>2883.5264 (+- 1517.4997)</t>
-  </si>
-  <si>
-    <t>2272.3269 (+- 1237.9770)</t>
-  </si>
-  <si>
-    <t>3.5774 (+- 1.8163)</t>
-  </si>
-  <si>
-    <t>3.6200 (+- 1.8856)</t>
-  </si>
-  <si>
-    <t>3.6137 (+- 1.7981)</t>
-  </si>
-  <si>
     <t>2193.4 (+- 1697.9)</t>
   </si>
   <si>
@@ -638,433 +534,541 @@
     <t>0.5516 (+- 0.7634)</t>
   </si>
   <si>
-    <t>2572.3458 (+- 1756.4996)</t>
-  </si>
-  <si>
-    <t>2222.2754 (+- 1557.6472)</t>
-  </si>
-  <si>
-    <t>3.5291 (+- 2.5348)</t>
-  </si>
-  <si>
-    <t>3.5586 (+- 2.5329)</t>
-  </si>
-  <si>
-    <t>3.5263 (+- 2.5169)</t>
-  </si>
-  <si>
     <t>0.8236 (+- 0.2464)</t>
   </si>
   <si>
-    <t>2916.1487 (+- 1761.3334)</t>
-  </si>
-  <si>
-    <t>2271.3018 (+- 1354.1870)</t>
-  </si>
-  <si>
-    <t>3.5788 (+- 2.0163)</t>
-  </si>
-  <si>
-    <t>3.6367 (+- 2.1841)</t>
-  </si>
-  <si>
-    <t>3.5815 (+- 1.9742)</t>
-  </si>
-  <si>
     <t>0.8565 (+- 0.1698)</t>
   </si>
   <si>
-    <t>2608.5233 (+- 1566.9191)</t>
-  </si>
-  <si>
-    <t>2105.6969 (+- 1274.0319)</t>
-  </si>
-  <si>
-    <t>3.3099 (+- 1.8905)</t>
-  </si>
-  <si>
-    <t>3.3610 (+- 1.9746)</t>
-  </si>
-  <si>
-    <t>3.3436 (+- 1.8980)</t>
-  </si>
-  <si>
     <t>0.5797 (+- 0.4921)</t>
   </si>
   <si>
-    <t>2861.1228 (+- 1835.1867)</t>
-  </si>
-  <si>
-    <t>2480.8483 (+- 1632.3110)</t>
-  </si>
-  <si>
-    <t>3.9657 (+- 2.6463)</t>
-  </si>
-  <si>
-    <t>3.9602 (+- 2.6601)</t>
-  </si>
-  <si>
-    <t>3.9550 (+- 2.6109)</t>
-  </si>
-  <si>
     <t>0.6354 (+- 0.4575)</t>
   </si>
   <si>
-    <t>2584.3916 (+- 1568.2206)</t>
-  </si>
-  <si>
-    <t>2219.7519 (+- 1400.2827)</t>
-  </si>
-  <si>
-    <t>3.5445 (+- 2.2691)</t>
-  </si>
-  <si>
-    <t>3.5402 (+- 2.2266)</t>
-  </si>
-  <si>
-    <t>3.5424 (+- 2.2625)</t>
-  </si>
-  <si>
     <t>0.8262 (+- 0.1782)</t>
   </si>
   <si>
-    <t>2975.7246 (+- 1644.5288)</t>
-  </si>
-  <si>
-    <t>2337.3852 (+- 1280.1179)</t>
-  </si>
-  <si>
-    <t>3.6734 (+- 1.8904)</t>
-  </si>
-  <si>
-    <t>3.7063 (+- 1.9369)</t>
-  </si>
-  <si>
-    <t>3.7081 (+- 1.8619)</t>
-  </si>
-  <si>
     <t>0.8230 (+- 0.2097)</t>
   </si>
   <si>
-    <t>3029.1377 (+- 1576.1848)</t>
-  </si>
-  <si>
-    <t>2352.7338 (+- 1198.5889)</t>
-  </si>
-  <si>
-    <t>3.7105 (+- 1.7537)</t>
-  </si>
-  <si>
-    <t>3.7775 (+- 1.8869)</t>
-  </si>
-  <si>
-    <t>3.7509 (+- 1.7098)</t>
-  </si>
-  <si>
     <t>0.7090 (+- 0.4441)</t>
   </si>
   <si>
-    <t>2251.2173 (+- 1216.3092)</t>
-  </si>
-  <si>
-    <t>1905.4408 (+- 1055.8228)</t>
-  </si>
-  <si>
-    <t>3.0358 (+- 1.7620)</t>
-  </si>
-  <si>
-    <t>3.0696 (+- 1.7773)</t>
-  </si>
-  <si>
-    <t>3.0385 (+- 1.7385)</t>
-  </si>
-  <si>
     <t>0.6084 (+- 0.5192)</t>
   </si>
   <si>
-    <t>2654.7680 (+- 1275.7817)</t>
-  </si>
-  <si>
-    <t>2258.8161 (+- 1048.4051)</t>
-  </si>
-  <si>
-    <t>3.6411 (+- 1.8853)</t>
-  </si>
-  <si>
-    <t>3.7221 (+- 2.0003)</t>
-  </si>
-  <si>
-    <t>3.6399 (+- 1.8764)</t>
-  </si>
-  <si>
     <t>0.6792 (+- 0.4781)</t>
   </si>
   <si>
-    <t>2255.7309 (+- 1304.1663)</t>
-  </si>
-  <si>
-    <t>1936.0982 (+- 1186.2690)</t>
-  </si>
-  <si>
-    <t>3.1132 (+- 1.9880)</t>
-  </si>
-  <si>
-    <t>3.1463 (+- 2.0406)</t>
-  </si>
-  <si>
-    <t>3.0960 (+- 1.9667)</t>
-  </si>
-  <si>
     <t>0.8152 (+- 0.1898)</t>
   </si>
   <si>
-    <t>3174.0704 (+- 1487.0925)</t>
-  </si>
-  <si>
-    <t>2534.4655 (+- 1173.1361)</t>
-  </si>
-  <si>
-    <t>4.0044 (+- 1.7089)</t>
-  </si>
-  <si>
-    <t>4.0553 (+- 1.8211)</t>
-  </si>
-  <si>
-    <t>4.0399 (+- 1.6871)</t>
-  </si>
-  <si>
     <t>0.8296 (+- 0.2138)</t>
   </si>
   <si>
-    <t>2935.7951 (+- 1618.7915)</t>
-  </si>
-  <si>
-    <t>2305.7642 (+- 1294.0273)</t>
-  </si>
-  <si>
-    <t>3.6325 (+- 1.9116)</t>
-  </si>
-  <si>
-    <t>3.6969 (+- 2.0413)</t>
-  </si>
-  <si>
-    <t>3.6633 (+- 1.8707)</t>
-  </si>
-  <si>
     <t>0.5825 (+- 0.7722)</t>
   </si>
   <si>
-    <t>2319.2544 (+- 1681.4254)</t>
-  </si>
-  <si>
-    <t>1965.0725 (+- 1443.5613)</t>
-  </si>
-  <si>
-    <t>3.1414 (+- 2.4415)</t>
-  </si>
-  <si>
-    <t>3.1875 (+- 2.4918)</t>
-  </si>
-  <si>
-    <t>3.1442 (+- 2.4145)</t>
-  </si>
-  <si>
     <t>0.8223 (+- 0.2264)</t>
   </si>
   <si>
-    <t>2998.8977 (+- 1650.7572)</t>
-  </si>
-  <si>
-    <t>2307.5016 (+- 1248.9180)</t>
-  </si>
-  <si>
-    <t>3.6398 (+- 1.8462)</t>
-  </si>
-  <si>
-    <t>3.6999 (+- 2.0027)</t>
-  </si>
-  <si>
-    <t>3.6720 (+- 1.8023)</t>
-  </si>
-  <si>
     <t>0.5872 (+- 0.6962)</t>
   </si>
   <si>
-    <t>2511.0259 (+- 1599.8823)</t>
-  </si>
-  <si>
-    <t>2144.2444 (+- 1372.4431)</t>
-  </si>
-  <si>
-    <t>3.4711 (+- 2.3373)</t>
-  </si>
-  <si>
-    <t>3.5495 (+- 2.4590)</t>
-  </si>
-  <si>
-    <t>3.4434 (+- 2.3111)</t>
-  </si>
-  <si>
     <t>0.8486 (+- 0.1972)</t>
   </si>
   <si>
-    <t>2755.4982 (+- 1570.0418)</t>
-  </si>
-  <si>
-    <t>2203.9476 (+- 1240.0451)</t>
-  </si>
-  <si>
-    <t>3.4768 (+- 1.8354)</t>
-  </si>
-  <si>
-    <t>3.5426 (+- 1.9562)</t>
-  </si>
-  <si>
-    <t>3.5026 (+- 1.8142)</t>
-  </si>
-  <si>
     <t>0.6462 (+- 0.4056)</t>
   </si>
   <si>
-    <t>2627.6570 (+- 1229.5316)</t>
-  </si>
-  <si>
-    <t>2182.1430 (+- 1078.7024)</t>
-  </si>
-  <si>
-    <t>3.5180 (+- 1.9022)</t>
-  </si>
-  <si>
-    <t>3.5647 (+- 2.0220)</t>
-  </si>
-  <si>
-    <t>3.4975 (+- 1.9160)</t>
-  </si>
-  <si>
     <t>0.7830 (+- 0.2460)</t>
   </si>
   <si>
-    <t>3410.8101 (+- 1634.6971)</t>
-  </si>
-  <si>
-    <t>2728.6148 (+- 1270.4332)</t>
-  </si>
-  <si>
-    <t>4.3243 (+- 1.8821)</t>
-  </si>
-  <si>
-    <t>4.3933 (+- 2.0400)</t>
-  </si>
-  <si>
-    <t>4.3512 (+- 1.8156)</t>
-  </si>
-  <si>
     <t>0.6122 (+- 0.4406)</t>
   </si>
   <si>
-    <t>2748.3855 (+- 1244.1067)</t>
-  </si>
-  <si>
-    <t>2316.5103 (+- 1046.9788)</t>
-  </si>
-  <si>
-    <t>3.7216 (+- 1.8446)</t>
-  </si>
-  <si>
-    <t>3.7705 (+- 1.9461)</t>
-  </si>
-  <si>
-    <t>3.7044 (+- 1.8470)</t>
-  </si>
-  <si>
     <t>0.7870 (+- 0.2642)</t>
   </si>
   <si>
-    <t>3314.9256 (+- 1728.5361)</t>
-  </si>
-  <si>
-    <t>2653.4923 (+- 1287.3351)</t>
-  </si>
-  <si>
-    <t>4.2038 (+- 1.9170)</t>
-  </si>
-  <si>
-    <t>4.2996 (+- 2.0970)</t>
-  </si>
-  <si>
-    <t>4.2266 (+- 1.8514)</t>
-  </si>
-  <si>
     <t>0.7012 (+- 0.4680)</t>
   </si>
   <si>
-    <t>2241.1686 (+- 1242.6860)</t>
-  </si>
-  <si>
-    <t>1886.8087 (+- 1072.1443)</t>
-  </si>
-  <si>
-    <t>3.0259 (+- 1.8404)</t>
-  </si>
-  <si>
-    <t>3.0665 (+- 1.8463)</t>
-  </si>
-  <si>
-    <t>3.0361 (+- 1.8296)</t>
-  </si>
-  <si>
     <t>0.8240 (+- 0.2038)</t>
   </si>
   <si>
-    <t>3029.9524 (+- 1543.7406)</t>
-  </si>
-  <si>
-    <t>2374.8075 (+- 1163.0000)</t>
-  </si>
-  <si>
-    <t>3.7477 (+- 1.6994)</t>
-  </si>
-  <si>
-    <t>3.8148 (+- 1.8232)</t>
-  </si>
-  <si>
-    <t>3.7899 (+- 1.6557)</t>
-  </si>
-  <si>
     <t>-0.3404 (+- 1.6068)</t>
   </si>
   <si>
-    <t>5359.5101 (+- 2942.1797)</t>
-  </si>
-  <si>
-    <t>4518.2738 (+- 2718.9008)</t>
-  </si>
-  <si>
-    <t>7.1654 (+- 4.3671)</t>
-  </si>
-  <si>
-    <t>7.3191 (+- 4.7230)</t>
-  </si>
-  <si>
-    <t>6.9675 (+- 4.0177)</t>
-  </si>
-  <si>
     <t>0.6879 (+- 0.1503)</t>
   </si>
   <si>
-    <t>4368.8667 (+- 1041.3089)</t>
-  </si>
-  <si>
-    <t>3564.7768 (+- 1041.7285)</t>
-  </si>
-  <si>
-    <t>5.7003 (+- 1.6444)</t>
-  </si>
-  <si>
-    <t>5.8046 (+- 1.7225)</t>
-  </si>
-  <si>
-    <t>5.8488 (+- 1.8289)</t>
+    <t>Tested on ISONE</t>
+  </si>
+  <si>
+    <t>2572.3 (+- 1756.5)</t>
+  </si>
+  <si>
+    <t>2222.3 (+- 1557.6)</t>
+  </si>
+  <si>
+    <t>3.53 (+- 2.53)</t>
+  </si>
+  <si>
+    <t>3.56 (+- 2.53)</t>
+  </si>
+  <si>
+    <t>3.53 (+- 2.52)</t>
+  </si>
+  <si>
+    <t>2861.1 (+- 1835.2)</t>
+  </si>
+  <si>
+    <t>2480.8 (+- 1632.3)</t>
+  </si>
+  <si>
+    <t>3.97 (+- 2.65)</t>
+  </si>
+  <si>
+    <t>3.96 (+- 2.66)</t>
+  </si>
+  <si>
+    <t>3.96 (+- 2.61)</t>
+  </si>
+  <si>
+    <t>2251.2 (+- 1216.3)</t>
+  </si>
+  <si>
+    <t>1905.4 (+- 1055.8)</t>
+  </si>
+  <si>
+    <t>3.04 (+- 1.76)</t>
+  </si>
+  <si>
+    <t>3.07 (+- 1.78)</t>
+  </si>
+  <si>
+    <t>3.04 (+- 1.74)</t>
+  </si>
+  <si>
+    <t>2584.4 (+- 1568.2)</t>
+  </si>
+  <si>
+    <t>2219.8 (+- 1400.3)</t>
+  </si>
+  <si>
+    <t>3.54 (+- 2.27)</t>
+  </si>
+  <si>
+    <t>3.54 (+- 2.23)</t>
+  </si>
+  <si>
+    <t>3.54 (+- 2.26)</t>
+  </si>
+  <si>
+    <t>2255.7 (+- 1304.2)</t>
+  </si>
+  <si>
+    <t>1936.1 (+- 1186.3)</t>
+  </si>
+  <si>
+    <t>3.11 (+- 1.99)</t>
+  </si>
+  <si>
+    <t>3.15 (+- 2.04)</t>
+  </si>
+  <si>
+    <t>3.10 (+- 1.97)</t>
+  </si>
+  <si>
+    <t>2654.8 (+- 1275.8)</t>
+  </si>
+  <si>
+    <t>2258.8 (+- 1048.4)</t>
+  </si>
+  <si>
+    <t>3.64 (+- 1.89)</t>
+  </si>
+  <si>
+    <t>3.72 (+- 2.00)</t>
+  </si>
+  <si>
+    <t>3.64 (+- 1.88)</t>
+  </si>
+  <si>
+    <t>2319.3 (+- 1681.4)</t>
+  </si>
+  <si>
+    <t>1965.1 (+- 1443.6)</t>
+  </si>
+  <si>
+    <t>3.14 (+- 2.44)</t>
+  </si>
+  <si>
+    <t>3.19 (+- 2.49)</t>
+  </si>
+  <si>
+    <t>3.14 (+- 2.41)</t>
+  </si>
+  <si>
+    <t>2511.0 (+- 1599.9)</t>
+  </si>
+  <si>
+    <t>2144.2 (+- 1372.4)</t>
+  </si>
+  <si>
+    <t>3.47 (+- 2.34)</t>
+  </si>
+  <si>
+    <t>3.55 (+- 2.46)</t>
+  </si>
+  <si>
+    <t>3.44 (+- 2.31)</t>
+  </si>
+  <si>
+    <t>2627.7 (+- 1229.5)</t>
+  </si>
+  <si>
+    <t>2182.1 (+- 1078.7)</t>
+  </si>
+  <si>
+    <t>3.52 (+- 1.90)</t>
+  </si>
+  <si>
+    <t>3.56 (+- 2.02)</t>
+  </si>
+  <si>
+    <t>3.50 (+- 1.92)</t>
+  </si>
+  <si>
+    <t>2748.4 (+- 1244.1)</t>
+  </si>
+  <si>
+    <t>2316.5 (+- 1047.0)</t>
+  </si>
+  <si>
+    <t>3.72 (+- 1.84)</t>
+  </si>
+  <si>
+    <t>3.77 (+- 1.95)</t>
+  </si>
+  <si>
+    <t>3.70 (+- 1.85)</t>
+  </si>
+  <si>
+    <t>2241.2 (+- 1242.7)</t>
+  </si>
+  <si>
+    <t>1886.8 (+- 1072.1)</t>
+  </si>
+  <si>
+    <t>3.03 (+- 1.84)</t>
+  </si>
+  <si>
+    <t>3.07 (+- 1.85)</t>
+  </si>
+  <si>
+    <t>3.04 (+- 1.83)</t>
+  </si>
+  <si>
+    <t>5359.5 (+- 2942.2)</t>
+  </si>
+  <si>
+    <t>4518.3 (+- 2718.9)</t>
+  </si>
+  <si>
+    <t>7.17 (+- 4.37)</t>
+  </si>
+  <si>
+    <t>7.32 (+- 4.72)</t>
+  </si>
+  <si>
+    <t>6.97 (+- 4.02)</t>
+  </si>
+  <si>
+    <t>R²adj</t>
+  </si>
+  <si>
+    <t>2918.8 (+- 1612.6)</t>
+  </si>
+  <si>
+    <t>2319.1 (+- 1293.5)</t>
+  </si>
+  <si>
+    <t>3.65 (+- 1.91)</t>
+  </si>
+  <si>
+    <t>3.70 (+- 1.99)</t>
+  </si>
+  <si>
+    <t>3.68 (+- 1.88)</t>
+  </si>
+  <si>
+    <t>2704.9 (+- 1663.0)</t>
+  </si>
+  <si>
+    <t>2107.2 (+- 1258.0)</t>
+  </si>
+  <si>
+    <t>3.31 (+- 1.86)</t>
+  </si>
+  <si>
+    <t>3.34 (+- 1.96)</t>
+  </si>
+  <si>
+    <t>3.32 (+- 1.83)</t>
+  </si>
+  <si>
+    <t>2968.8 (+- 1808.9)</t>
+  </si>
+  <si>
+    <t>2315.7 (+- 1365.1)</t>
+  </si>
+  <si>
+    <t>3.64 (+- 2.02)</t>
+  </si>
+  <si>
+    <t>3.69 (+- 2.14)</t>
+  </si>
+  <si>
+    <t>3.66 (+- 1.97)</t>
+  </si>
+  <si>
+    <t>2743.1 (+- 1571.5)</t>
+  </si>
+  <si>
+    <t>2146.3 (+- 1218.2)</t>
+  </si>
+  <si>
+    <t>3.37 (+- 1.79)</t>
+  </si>
+  <si>
+    <t>3.39 (+- 1.88)</t>
+  </si>
+  <si>
+    <t>3.38 (+- 1.77)</t>
+  </si>
+  <si>
+    <t>2922.9 (+- 1845.0)</t>
+  </si>
+  <si>
+    <t>2247.9 (+- 1377.2)</t>
+  </si>
+  <si>
+    <t>3.53 (+- 2.04)</t>
+  </si>
+  <si>
+    <t>3.59 (+- 2.16)</t>
+  </si>
+  <si>
+    <t>3.56 (+- 1.98)</t>
+  </si>
+  <si>
+    <t>2882.0 (+- 1546.7)</t>
+  </si>
+  <si>
+    <t>2271.7 (+- 1256.6)</t>
+  </si>
+  <si>
+    <t>3.57 (+- 1.84)</t>
+  </si>
+  <si>
+    <t>3.62 (+- 1.91)</t>
+  </si>
+  <si>
+    <t>3.61 (+- 1.83)</t>
+  </si>
+  <si>
+    <t>2883.5 (+- 1517.5)</t>
+  </si>
+  <si>
+    <t>2272.3 (+- 1238.0)</t>
+  </si>
+  <si>
+    <t>3.58 (+- 1.82)</t>
+  </si>
+  <si>
+    <t>3.62 (+- 1.89)</t>
+  </si>
+  <si>
+    <t>3.61 (+- 1.80)</t>
+  </si>
+  <si>
+    <t>2916.1 (+- 1761.3)</t>
+  </si>
+  <si>
+    <t>2271.3 (+- 1354.2)</t>
+  </si>
+  <si>
+    <t>3.58 (+- 2.02)</t>
+  </si>
+  <si>
+    <t>3.64 (+- 2.18)</t>
+  </si>
+  <si>
+    <t>3.58 (+- 1.97)</t>
+  </si>
+  <si>
+    <t>2608.5 (+- 1566.9)</t>
+  </si>
+  <si>
+    <t>2105.7 (+- 1274.0)</t>
+  </si>
+  <si>
+    <t>3.31 (+- 1.89)</t>
+  </si>
+  <si>
+    <t>3.36 (+- 1.97)</t>
+  </si>
+  <si>
+    <t>3.34 (+- 1.90)</t>
+  </si>
+  <si>
+    <t>3029.1 (+- 1576.2)</t>
+  </si>
+  <si>
+    <t>2352.7 (+- 1198.6)</t>
+  </si>
+  <si>
+    <t>3.71 (+- 1.75)</t>
+  </si>
+  <si>
+    <t>3.78 (+- 1.89)</t>
+  </si>
+  <si>
+    <t>3.75 (+- 1.71)</t>
+  </si>
+  <si>
+    <t>2975.7 (+- 1644.5)</t>
+  </si>
+  <si>
+    <t>2337.4 (+- 1280.1)</t>
+  </si>
+  <si>
+    <t>3.67 (+- 1.89)</t>
+  </si>
+  <si>
+    <t>3.71 (+- 1.94)</t>
+  </si>
+  <si>
+    <t>3.71 (+- 1.86)</t>
+  </si>
+  <si>
+    <t>2935.8 (+- 1618.8)</t>
+  </si>
+  <si>
+    <t>2305.8 (+- 1294.0)</t>
+  </si>
+  <si>
+    <t>3.70 (+- 2.04)</t>
+  </si>
+  <si>
+    <t>3.66 (+- 1.87)</t>
+  </si>
+  <si>
+    <t>3174.1 (+- 1487.1)</t>
+  </si>
+  <si>
+    <t>2534.5 (+- 1173.1)</t>
+  </si>
+  <si>
+    <t>4.00 (+- 1.71)</t>
+  </si>
+  <si>
+    <t>4.06 (+- 1.82)</t>
+  </si>
+  <si>
+    <t>4.04 (+- 1.69)</t>
+  </si>
+  <si>
+    <t>2998.9 (+- 1650.8)</t>
+  </si>
+  <si>
+    <t>2307.5 (+- 1248.9)</t>
+  </si>
+  <si>
+    <t>3.64 (+- 1.85)</t>
+  </si>
+  <si>
+    <t>3.70 (+- 2.00)</t>
+  </si>
+  <si>
+    <t>3.67 (+- 1.80)</t>
+  </si>
+  <si>
+    <t>2755.5 (+- 1570.0)</t>
+  </si>
+  <si>
+    <t>2203.9 (+- 1240.0)</t>
+  </si>
+  <si>
+    <t>3.48 (+- 1.84)</t>
+  </si>
+  <si>
+    <t>3.54 (+- 1.96)</t>
+  </si>
+  <si>
+    <t>3.50 (+- 1.81)</t>
+  </si>
+  <si>
+    <t>3410.8 (+- 1634.7)</t>
+  </si>
+  <si>
+    <t>2728.6 (+- 1270.4)</t>
+  </si>
+  <si>
+    <t>4.32 (+- 1.88)</t>
+  </si>
+  <si>
+    <t>4.39 (+- 2.04)</t>
+  </si>
+  <si>
+    <t>4.35 (+- 1.82)</t>
+  </si>
+  <si>
+    <t>3314.9 (+- 1728.5)</t>
+  </si>
+  <si>
+    <t>2653.5 (+- 1287.3)</t>
+  </si>
+  <si>
+    <t>4.20 (+- 1.92)</t>
+  </si>
+  <si>
+    <t>4.30 (+- 2.10)</t>
+  </si>
+  <si>
+    <t>4.23 (+- 1.85)</t>
+  </si>
+  <si>
+    <t>3030.0 (+- 1543.7)</t>
+  </si>
+  <si>
+    <t>2374.8 (+- 1163.0)</t>
+  </si>
+  <si>
+    <t>3.75 (+- 1.70)</t>
+  </si>
+  <si>
+    <t>3.81 (+- 1.82)</t>
+  </si>
+  <si>
+    <t>3.79 (+- 1.66)</t>
+  </si>
+  <si>
+    <t>4368.9 (+- 1041.3)</t>
+  </si>
+  <si>
+    <t>3564.8 (+- 1041.7)</t>
+  </si>
+  <si>
+    <t>5.70 (+- 1.64)</t>
+  </si>
+  <si>
+    <t>5.80 (+- 1.72)</t>
+  </si>
+  <si>
+    <t>5.85 (+- 1.83)</t>
   </si>
 </sst>
 </file>
@@ -1109,7 +1113,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1117,12 +1121,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1192,12 +1207,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1212,6 +1221,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1899,6 +1917,1943 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$5:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>2339.5880999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$5:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2245.4712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2263.1905000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2226.6338000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2237.6957000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2255.5227</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2212.9043999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.6035999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2229.6559000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$5:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2392.4740999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2549.5826000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2617.0545999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2738.9404</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2863.1176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2615.3501999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2645.4497000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2596.8231000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2612.0072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$5:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2372.7037999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2253.3438000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2407.4582999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2420.4529000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2457.5909999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2335.8357999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2341.8168000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2172.4454999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3562.1704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$5:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2313.1725000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2415.0837999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2519.4225000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2776.2660999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2594.5520999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2769.5900999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2579.7912000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2532.4270999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2526.4198000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C6D6-4492-B127-586E3A76FE40}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1626098416"/>
+        <c:axId val="1626095920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1626098416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626095920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1626095920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3600"/>
+          <c:min val="2000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1626098416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>2403.3393000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>2087.5054</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2083.8233</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2049.7368000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1985.6126999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.8257000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2031.3905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2040.34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2108.3820999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2207.2873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2278.2395000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2719.9313999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2897.8775000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3321.8616999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3029.4784</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2977.5055000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2925.0524</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2922.5725000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2237.1633999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2297.1839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308.6291000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2324.6129000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2326.1549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2233.2543000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2252.1842000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2067.5255000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2082.5902000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2252.9481000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2222.1786000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2342.9792000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2647.0506999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2967.7283000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2804.5895</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2734.0311000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2732.2339999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2668.3697999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-23CB-41B6-8E35-A99FAC45AB4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1700757631"/>
+        <c:axId val="1700753055"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1700757631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700753055"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1700753055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3400"/>
+          <c:min val="1800"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1700757631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="100"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$H$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>STL-A</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="7030A0"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$H$44:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="2">
+                  <c:v>4068.5992000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$I$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EWT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$I$44:$I$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="1">
+                  <c:v>4673.7154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3744.0219999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3927.3984999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3948.0063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3954.9625000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3971.9029</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4089.1448</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4037.1493999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$J$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$J$44:$J$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3312.4160999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3861.7303000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4109.3037999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4794.3135000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$K$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EEMD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$K$44:$K$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3355.5754000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3388.1349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3838.3328999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4540.5003999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4948.0290999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5125.4876000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5863.3380999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5876.5378000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5960.3999000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Decomposition tests'!$L$43</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CEEMDAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Decomposition tests'!$L$44:$L$52</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>3520.2480999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3703.5209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4054.8339999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4477.1706000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5163.3675999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5771.4120999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5764.3146999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5901.0825000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5900.2129999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D735-4189-A9E4-B0D10F915CB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1747081023"/>
+        <c:axId val="1747099743"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1747081023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>Number of IMFs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747099743"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1747099743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="6000"/>
+          <c:min val="3000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="1">
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>RMSE</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1747081023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="250"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
@@ -2522,7 +4477,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6246,7 +8201,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6267,19 +8222,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$H$5:$H$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$5:$G$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="2">
-                  <c:v>2339.5880999999999</c:v>
+                  <c:v>2998.8977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000000-66C2-49C2-84E1-55E325FDE129}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6288,7 +8243,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$I$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6309,40 +8264,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$I$5:$I$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$5:$H$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>2245.4712</c:v>
+                  <c:v>2916.1487000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2263.1905000000002</c:v>
+                  <c:v>3022.0349999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2226.6338000000001</c:v>
+                  <c:v>3021.7800999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2237.6957000000002</c:v>
+                  <c:v>3005.2494000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2255.5227</c:v>
+                  <c:v>3006.433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2212.9043999999999</c:v>
+                  <c:v>3037.6460000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2172.6035999999999</c:v>
+                  <c:v>3031.5997000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2229.6559000000002</c:v>
+                  <c:v>3018.8796000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000001-66C2-49C2-84E1-55E325FDE129}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6351,7 +8306,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$J$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6362,7 +8317,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6372,43 +8327,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$J$5:$J$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$5:$I$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2392.4740999999999</c:v>
+                  <c:v>3029.1377000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2549.5826000000002</c:v>
+                  <c:v>3233.2348000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2617.0545999999999</c:v>
+                  <c:v>3252.2988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2738.9404</c:v>
+                  <c:v>3328.0574000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2863.1176</c:v>
+                  <c:v>3538.8685</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2615.3501999999999</c:v>
+                  <c:v>3593.2633000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2645.4497000000001</c:v>
+                  <c:v>3455.0556999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2596.8231000000001</c:v>
+                  <c:v>3486.6414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2612.0072</c:v>
+                  <c:v>3519.7595000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000002-66C2-49C2-84E1-55E325FDE129}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6417,7 +8372,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$K$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6438,52 +8393,52 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$K$5:$K$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$5:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2372.7037999999998</c:v>
+                  <c:v>3007.9765000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2253.3438000000001</c:v>
+                  <c:v>2975.0403999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2407.4582999999998</c:v>
+                  <c:v>3139.1694000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2420.4529000000002</c:v>
+                  <c:v>3117.6486</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2457.5909999999999</c:v>
+                  <c:v>3106.4117999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2335.8357999999998</c:v>
+                  <c:v>2933.7282</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2341.8168000000001</c:v>
+                  <c:v>3002.6997999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2172.4454999999998</c:v>
+                  <c:v>2971.3015999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3562.1704</c:v>
+                  <c:v>2976.5189999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000003-66C2-49C2-84E1-55E325FDE129}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$L$4</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6494,7 +8449,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6504,43 +8459,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$L$5:$L$13</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$5:$K$13</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2313.1725000000001</c:v>
+                  <c:v>2961.8478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2415.0837999999999</c:v>
+                  <c:v>3156.7096999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2519.4225000000001</c:v>
+                  <c:v>3236.1898000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2776.2660999999998</c:v>
+                  <c:v>3319.3375999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2594.5520999999999</c:v>
+                  <c:v>3216.8326999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2769.5900999999999</c:v>
+                  <c:v>3413.4629</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2579.7912000000001</c:v>
+                  <c:v>3378.7970999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2532.4270999999999</c:v>
+                  <c:v>3356.1219999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2526.4198000000001</c:v>
+                  <c:v>3356.9883</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-C6D6-4492-B127-586E3A76FE40}"/>
+              <c16:uniqueId val="{00000004-66C2-49C2-84E1-55E325FDE129}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6670,7 +8625,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3600"/>
-          <c:min val="2000"/>
+          <c:min val="2800"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6893,7 +8848,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6904,7 +8859,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:srgbClr val="7030A0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -6914,19 +8869,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$H$18:$H$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$18:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="2">
-                  <c:v>2403.3393000000001</c:v>
+                  <c:v>2918.8231999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000000-D592-463B-BB48-27734143F0DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6935,7 +8890,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$I$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6956,40 +8911,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$I$18:$I$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$18:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>2087.5054</c:v>
+                  <c:v>2854.569</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2083.8233</c:v>
+                  <c:v>3023.962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2049.7368000000001</c:v>
+                  <c:v>2949.8917000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1985.6126999999999</c:v>
+                  <c:v>2978.7330000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1982.8257000000001</c:v>
+                  <c:v>2950.8757000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2031.3905</c:v>
+                  <c:v>3099.6822000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2040.34</c:v>
+                  <c:v>3112.5025999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2108.3820999999998</c:v>
+                  <c:v>2162.8265000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000001-D592-463B-BB48-27734143F0DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6998,7 +8953,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$J$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7009,7 +8964,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7019,43 +8974,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$J$18:$J$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$18:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2207.2873</c:v>
+                  <c:v>2892.3793999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2278.2395000000001</c:v>
+                  <c:v>2938.9209000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2719.9313999999999</c:v>
+                  <c:v>3298.4965000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2897.8775000000001</c:v>
+                  <c:v>3690.99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3321.8616999999999</c:v>
+                  <c:v>3999.9092999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3029.4784</c:v>
+                  <c:v>3920.8984999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2977.5055000000002</c:v>
+                  <c:v>3665.9522000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2925.0524</c:v>
+                  <c:v>3679.3458999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2922.5725000000002</c:v>
+                  <c:v>3690.8130999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000002-D592-463B-BB48-27734143F0DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7064,7 +9019,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$K$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7075,7 +9030,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7085,43 +9040,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$K$18:$K$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$18:$J$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2237.1633999999999</c:v>
+                  <c:v>2930.2069000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2297.1839</c:v>
+                  <c:v>2967.0592999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2308.6291000000001</c:v>
+                  <c:v>2962.7022999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2324.6129000000001</c:v>
+                  <c:v>3036.1154999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2326.1549</c:v>
+                  <c:v>2881.9553999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2233.2543000000001</c:v>
+                  <c:v>2970.5527999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2252.1842000000001</c:v>
+                  <c:v>2991.4625000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2067.5255000000002</c:v>
+                  <c:v>2883.4358999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2082.5902000000001</c:v>
+                  <c:v>2903.4171000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000003-D592-463B-BB48-27734143F0DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7130,7 +9085,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$L$17</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7141,7 +9096,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7151,43 +9106,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$L$18:$L$26</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$18:$K$26</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2252.9481000000001</c:v>
+                  <c:v>2968.8368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2222.1786000000002</c:v>
+                  <c:v>2972.6895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2342.9792000000002</c:v>
+                  <c:v>3377.3800999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2647.0506999999998</c:v>
+                  <c:v>3618.0066999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2967.7283000000002</c:v>
+                  <c:v>3632.2928999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2804.5895</c:v>
+                  <c:v>3546.5821999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2734.0311000000002</c:v>
+                  <c:v>3545.9722000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2732.2339999999999</c:v>
+                  <c:v>3560.6932000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2668.3697999999999</c:v>
+                  <c:v>3554.5709000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-23CB-41B6-8E35-A99FAC45AB4C}"/>
+              <c16:uniqueId val="{00000004-D592-463B-BB48-27734143F0DC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7316,8 +9271,8 @@
         <c:axId val="1700753055"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="3400"/>
-          <c:min val="1800"/>
+          <c:max val="4200"/>
+          <c:min val="2000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7427,7 +9382,7 @@
         <c:crossAx val="1700757631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="100"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -7538,7 +9493,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$H$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7559,19 +9514,19 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$H$44:$H$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$G$44:$G$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
-                <c:pt idx="2">
-                  <c:v>4068.5992000000001</c:v>
+                <c:pt idx="3">
+                  <c:v>5280.4309999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000000-7C75-4E7A-9C39-0D917319B608}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7580,7 +9535,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$I$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7601,40 +9556,40 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$I$44:$I$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$H$44:$H$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="1">
-                  <c:v>4673.7154</c:v>
+                  <c:v>5123.6818000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3744.0219999999999</c:v>
+                  <c:v>4801.7353000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3927.3984999999998</c:v>
+                  <c:v>4821.4952999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3948.0063</c:v>
+                  <c:v>4684.1733999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3954.9625000000001</c:v>
+                  <c:v>4798.7318999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3971.9029</c:v>
+                  <c:v>4934.8059000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4089.1448</c:v>
+                  <c:v>5166.6737000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4037.1493999999998</c:v>
+                  <c:v>4894.1741000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000001-7C75-4E7A-9C39-0D917319B608}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7643,7 +9598,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$J$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7654,7 +9609,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:srgbClr val="FFC000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7664,43 +9619,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$J$44:$J$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$I$44:$I$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3312.4160999999999</c:v>
+                  <c:v>4368.8666999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3861.7303000000002</c:v>
+                  <c:v>4777.585</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4109.3037999999997</c:v>
+                  <c:v>5113.7151999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4794.3135000000002</c:v>
+                  <c:v>5612.4866000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4948.0290999999997</c:v>
+                  <c:v>5591.9276</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5125.4876000000004</c:v>
+                  <c:v>5828.7683999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5863.3380999999999</c:v>
+                  <c:v>5925.7739000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5876.5378000000001</c:v>
+                  <c:v>6087.1574000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5960.3999000000003</c:v>
+                  <c:v>6120.5816000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000002-7C75-4E7A-9C39-0D917319B608}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7709,7 +9664,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$K$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7720,7 +9675,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent5"/>
+              <a:srgbClr val="0070C0"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7730,43 +9685,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$K$44:$K$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$J$44:$J$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3355.5754000000002</c:v>
+                  <c:v>4469.2611999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3388.1349</c:v>
+                  <c:v>4476.1656999999996</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3838.3328999999999</c:v>
+                  <c:v>5217.1566999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4540.5003999999999</c:v>
+                  <c:v>5138.7891</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4948.0290999999997</c:v>
+                  <c:v>5704.6785</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5125.4876000000004</c:v>
+                  <c:v>5881.2826999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5863.3380999999999</c:v>
+                  <c:v>6452.8892999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5876.5378000000001</c:v>
+                  <c:v>6485.1023999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5960.3999000000003</c:v>
+                  <c:v>6513.3662000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000003-7C75-4E7A-9C39-0D917319B608}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7775,7 +9730,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Decomposition tests'!$L$43</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7786,7 +9741,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6"/>
+              <a:srgbClr val="00B050"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -7796,43 +9751,43 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Decomposition tests'!$L$44:$L$52</c:f>
+              <c:f>'Decomposition tests - 2019'!$K$44:$K$52</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3520.2480999999998</c:v>
+                  <c:v>4374.6346999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3703.5209</c:v>
+                  <c:v>4751.2615999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4054.8339999999998</c:v>
+                  <c:v>5154.7103999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4477.1706000000004</c:v>
+                  <c:v>5654.3379999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5163.3675999999996</c:v>
+                  <c:v>6134.7632000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5771.4120999999996</c:v>
+                  <c:v>6540.5905000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5764.3146999999999</c:v>
+                  <c:v>6526.3330999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5901.0825000000004</c:v>
+                  <c:v>6613.8858</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5900.2129999999997</c:v>
+                  <c:v>6633.0402999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-D735-4189-A9E4-B0D10F915CB5}"/>
+              <c16:uniqueId val="{00000004-7C75-4E7A-9C39-0D917319B608}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7961,8 +9916,8 @@
         <c:axId val="1747099743"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="6000"/>
-          <c:min val="3000"/>
+          <c:max val="6700"/>
+          <c:min val="4200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8072,7 +10027,7 @@
         <c:crossAx val="1747081023"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="250"/>
+        <c:majorUnit val="200"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8238,6 +10193,126 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10106,6 +12181,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -14363,6 +17947,125 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>16249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>437029</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FA89B65-BB0C-4FD9-9FD8-AAF7EF74EFE5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>443471</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>70876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>168087</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62F2FB59-9504-4523-B65A-FDC05C3E8D2D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>162486</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>88528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152961</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>164728</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CD1C7B7-E17C-465C-B54A-E0600925815A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -14819,7 +18522,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15123,10 +18826,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51675923-20BA-4943-8F44-FB76CE04C397}">
-  <dimension ref="B3:L32"/>
+  <dimension ref="B3:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15141,38 +18844,38 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="27" t="s">
+      <c r="E3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="27" t="s">
+      <c r="J3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="K3" s="36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="2:12" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="27" t="s">
         <v>63</v>
       </c>
@@ -15194,13 +18897,13 @@
       <c r="H4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <f>801.019-55.36</f>
         <v>745.65899999999999</v>
       </c>
@@ -15233,7 +18936,7 @@
       <c r="J5" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="K5" s="34">
+      <c r="K5" s="32">
         <f>1558.663-344.71</f>
         <v>1213.953</v>
       </c>
@@ -15266,7 +18969,7 @@
       <c r="J6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="K6" s="34">
+      <c r="K6" s="32">
         <f>15.704-1.25</f>
         <v>14.454000000000001</v>
       </c>
@@ -15299,7 +19002,7 @@
       <c r="J7" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="K7" s="34">
+      <c r="K7" s="32">
         <f>51.764-13.44</f>
         <v>38.324000000000005</v>
       </c>
@@ -15315,24 +19018,24 @@
         <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>123</v>
+        <v>249</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>126</v>
+        <v>252</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="34">
+        <v>253</v>
+      </c>
+      <c r="K8" s="32">
         <f>14.292-1.39</f>
         <v>12.901999999999999</v>
       </c>
@@ -15351,25 +19054,25 @@
         <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>117</v>
+        <v>254</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>119</v>
+        <v>256</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>120</v>
+        <v>257</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="34">
+        <v>258</v>
+      </c>
+      <c r="K9" s="32">
         <f>44.792-12.23</f>
         <v>32.561999999999998</v>
       </c>
-      <c r="L9" s="33"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
@@ -15382,24 +19085,24 @@
         <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>131</v>
+        <v>260</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>132</v>
+        <v>261</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>133</v>
+        <v>262</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K10" s="34">
+        <v>263</v>
+      </c>
+      <c r="K10" s="32">
         <f>13.467-1.17</f>
         <v>12.297000000000001</v>
       </c>
@@ -15415,24 +19118,24 @@
         <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>137</v>
+        <v>264</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>139</v>
+        <v>266</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="K11" s="34">
+        <v>268</v>
+      </c>
+      <c r="K11" s="32">
         <f>97.853-23.5</f>
         <v>74.352999999999994</v>
       </c>
@@ -15448,24 +19151,24 @@
         <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>144</v>
+        <v>269</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="K12" s="34">
+        <v>273</v>
+      </c>
+      <c r="K12" s="32">
         <f>12.412-0.81</f>
         <v>11.602</v>
       </c>
@@ -15481,24 +19184,24 @@
         <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>151</v>
+        <v>274</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>152</v>
+        <v>275</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>154</v>
+        <v>277</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K13" s="34">
+        <v>278</v>
+      </c>
+      <c r="K13" s="32">
         <f>20.68-3</f>
         <v>17.68</v>
       </c>
@@ -15514,24 +19217,24 @@
         <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>158</v>
+        <v>279</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>161</v>
+        <v>282</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K14" s="34">
+        <v>283</v>
+      </c>
+      <c r="K14" s="32">
         <f>62-17.12</f>
         <v>44.879999999999995</v>
       </c>
@@ -15547,24 +19250,24 @@
         <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>207</v>
+        <v>286</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>208</v>
+        <v>287</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="K15" s="34">
+        <v>288</v>
+      </c>
+      <c r="K15" s="32">
         <f>14.807-1.19</f>
         <v>13.617000000000001</v>
       </c>
@@ -15580,24 +19283,24 @@
         <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>212</v>
+        <v>290</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>213</v>
+        <v>291</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>214</v>
+        <v>292</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="K16" s="34">
+        <v>293</v>
+      </c>
+      <c r="K16" s="32">
         <f>577.804-235.91</f>
         <v>341.89400000000001</v>
       </c>
@@ -15613,24 +19316,24 @@
         <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>235</v>
+        <v>294</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>236</v>
+        <v>295</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>237</v>
+        <v>296</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>238</v>
+        <v>297</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="K17" s="34">
+        <v>298</v>
+      </c>
+      <c r="K17" s="32">
         <f>16.512-1.19</f>
         <v>15.322000000000001</v>
       </c>
@@ -15646,24 +19349,24 @@
         <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>228</v>
+        <v>168</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>229</v>
+        <v>299</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>230</v>
+        <v>300</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>231</v>
+        <v>301</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>232</v>
+        <v>302</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="K18" s="34">
+        <v>303</v>
+      </c>
+      <c r="K18" s="32">
         <f>2009.34-147.68</f>
         <v>1861.6599999999999</v>
       </c>
@@ -15679,24 +19382,24 @@
         <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>265</v>
+        <v>304</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>266</v>
+        <v>305</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>267</v>
+        <v>146</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K19" s="34">
+        <v>307</v>
+      </c>
+      <c r="K19" s="32">
         <f>23.545-3.42</f>
         <v>20.125</v>
       </c>
@@ -15712,24 +19415,24 @@
         <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>258</v>
+        <v>173</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>259</v>
+        <v>308</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>260</v>
+        <v>309</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>261</v>
+        <v>310</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>262</v>
+        <v>311</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="K20" s="34">
+        <v>312</v>
+      </c>
+      <c r="K20" s="32">
         <f>644.626-197.45</f>
         <v>447.17599999999999</v>
       </c>
@@ -15745,24 +19448,24 @@
         <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>276</v>
+        <v>176</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="K21" s="34">
+        <v>317</v>
+      </c>
+      <c r="K21" s="32">
         <f>16.09-1.7</f>
         <v>14.39</v>
       </c>
@@ -15778,24 +19481,24 @@
         <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>288</v>
+        <v>178</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="K22" s="34">
+        <v>322</v>
+      </c>
+      <c r="K22" s="32">
         <f>247.905-78.32</f>
         <v>169.58500000000001</v>
       </c>
@@ -15811,24 +19514,24 @@
         <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>301</v>
+        <v>323</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>303</v>
+        <v>325</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>304</v>
+        <v>326</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="K23" s="34">
+        <v>327</v>
+      </c>
+      <c r="K23" s="32">
         <f>23.335-3.39</f>
         <v>19.945</v>
       </c>
@@ -15844,24 +19547,24 @@
         <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="K24" s="34">
+        <v>332</v>
+      </c>
+      <c r="K24" s="32">
         <f>128.78-45.28</f>
         <v>83.5</v>
       </c>
@@ -15877,24 +19580,24 @@
         <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>324</v>
+        <v>184</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="K25" s="34">
+        <v>337</v>
+      </c>
+      <c r="K25" s="32">
         <f>12.188-0.66</f>
         <v>11.528</v>
       </c>
@@ -15910,24 +19613,24 @@
         <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="H26" t="s">
         <v>339</v>
       </c>
-      <c r="I26" t="s">
+      <c r="H26" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K26" s="34">
+      <c r="J26" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K26" s="32">
         <f>40.391-0.83</f>
         <v>39.561</v>
       </c>
@@ -15940,9 +19643,9 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="34"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="32"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -15952,9 +19655,9 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="28"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="32"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
@@ -15964,9 +19667,9 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="28"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="32"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -15976,9 +19679,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="28"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="32"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
@@ -15988,9 +19691,9 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="28"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="32"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
@@ -16004,6 +19707,63 @@
       <c r="J32" s="9"/>
       <c r="K32" s="28"/>
     </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="34"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="34"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="34"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="34"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="34"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="34"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E44" s="34"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E45" s="34"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E46" s="34"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="34"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="34"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="34"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E50" s="34"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E51" s="34"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E52" s="34"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E53" s="34"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16011,10 +19771,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD7E598-4D5E-40AC-91C2-A94FFB49DEC1}">
-  <dimension ref="B3:O38"/>
+  <dimension ref="B3:O43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16030,34 +19790,34 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:15" ht="45" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="29" t="s">
+      <c r="C3" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="26" t="s">
+      <c r="E3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="26" t="s">
+      <c r="H3" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="26" t="s">
+      <c r="J3" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="36" t="s">
         <v>52</v>
       </c>
     </row>
@@ -16083,13 +19843,13 @@
       <c r="H4" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="33">
+      <c r="K4" s="31">
         <v>55.36</v>
       </c>
     </row>
@@ -16203,19 +19963,19 @@
         <v>114</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>164</v>
+        <v>129</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="K8" s="28">
         <v>1.37</v>
@@ -16235,19 +19995,19 @@
         <v>115</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>168</v>
+        <v>133</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>169</v>
+        <v>134</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="K9" s="28">
         <v>12.23</v>
@@ -16264,22 +20024,22 @@
         <v>79</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="K10" s="28">
         <v>1.17</v>
@@ -16296,22 +20056,22 @@
         <v>78</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>179</v>
+        <v>144</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>181</v>
+        <v>146</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>182</v>
+        <v>147</v>
       </c>
       <c r="K11" s="28">
         <v>23.5</v>
@@ -16328,22 +20088,22 @@
         <v>79</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>183</v>
+        <v>148</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>186</v>
+        <v>151</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>185</v>
+        <v>150</v>
       </c>
       <c r="K12" s="28">
         <v>0.81</v>
@@ -16360,22 +20120,22 @@
         <v>79</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>187</v>
+        <v>152</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>191</v>
+        <v>156</v>
       </c>
       <c r="K13" s="28">
         <v>3</v>
@@ -16392,22 +20152,22 @@
         <v>78</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>192</v>
+        <v>157</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="K14" s="28">
         <v>17.12</v>
@@ -16424,22 +20184,22 @@
         <v>79</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="K15" s="2">
         <v>1.19</v>
@@ -16459,22 +20219,22 @@
         <v>78</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>216</v>
+        <v>166</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="K16" s="2">
         <v>235.91</v>
@@ -16499,22 +20259,22 @@
         <v>79</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>240</v>
+        <v>170</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>243</v>
+        <v>200</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>244</v>
+        <v>201</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>245</v>
+        <v>202</v>
       </c>
       <c r="K17" s="2">
         <v>1.19</v>
@@ -16535,22 +20295,22 @@
         <v>78</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="K18" s="2">
         <v>147.68</v>
@@ -16571,22 +20331,22 @@
         <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>253</v>
+        <v>208</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>257</v>
+        <v>212</v>
       </c>
       <c r="K19" s="2">
         <v>3.42</v>
@@ -16607,22 +20367,22 @@
         <v>78</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="K20" s="2">
         <v>197.45</v>
@@ -16643,22 +20403,22 @@
         <v>79</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>270</v>
+        <v>175</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>271</v>
+        <v>218</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>272</v>
+        <v>219</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>274</v>
+        <v>221</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>275</v>
+        <v>222</v>
       </c>
       <c r="K21" s="2">
         <v>1.7</v>
@@ -16679,22 +20439,22 @@
         <v>78</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>283</v>
+        <v>223</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>284</v>
+        <v>224</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>285</v>
+        <v>225</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>286</v>
+        <v>226</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="K22" s="2">
         <v>78.319999999999993</v>
@@ -16715,22 +20475,22 @@
         <v>79</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>295</v>
+        <v>228</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>297</v>
+        <v>230</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>298</v>
+        <v>231</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>299</v>
+        <v>232</v>
       </c>
       <c r="K23" s="2">
         <v>3.39</v>
@@ -16751,22 +20511,22 @@
         <v>78</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>306</v>
+        <v>181</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>307</v>
+        <v>233</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>308</v>
+        <v>234</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>309</v>
+        <v>235</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>310</v>
+        <v>236</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>311</v>
+        <v>237</v>
       </c>
       <c r="K24" s="2">
         <v>45.28</v>
@@ -16787,22 +20547,22 @@
         <v>79</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>318</v>
+        <v>183</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>319</v>
+        <v>238</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>320</v>
+        <v>239</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>322</v>
+        <v>241</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>323</v>
+        <v>242</v>
       </c>
       <c r="K25" s="28">
         <v>0.66</v>
@@ -16819,22 +20579,22 @@
         <v>79</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>330</v>
+        <v>185</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>331</v>
+        <v>243</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>332</v>
+        <v>244</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>333</v>
+        <v>245</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>334</v>
+        <v>246</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>335</v>
+        <v>247</v>
       </c>
       <c r="K26" s="28">
         <v>0.83</v>
@@ -16844,7 +20604,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="36"/>
+      <c r="E27" s="34"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -16921,6 +20681,7 @@
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -16936,6 +20697,7 @@
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -16951,6 +20713,7 @@
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -16966,6 +20729,7 @@
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -16981,6 +20745,7 @@
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -16996,6 +20761,7 @@
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
@@ -17011,12 +20777,28 @@
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="28"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="34"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="34"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="34"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="34"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E43" s="34"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17374,7 +21156,7 @@
   <dimension ref="A2:V52"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17399,21 +21181,21 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="Q3" s="30" t="s">
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="Q3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="R3" s="30"/>
-      <c r="U3" s="30" t="s">
+      <c r="R3" s="35"/>
+      <c r="U3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="V3" s="30"/>
+      <c r="V3" s="35"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
@@ -17793,10 +21575,10 @@
       <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="30" t="s">
+      <c r="Q15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="R15" s="30"/>
+      <c r="R15" s="35"/>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -17804,13 +21586,13 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
       <c r="P16" t="s">
         <v>55</v>
       </c>
@@ -18078,13 +21860,13 @@
       </c>
     </row>
     <row r="29" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="H29" s="30" t="s">
+      <c r="H29" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
     </row>
     <row r="30" spans="2:18" x14ac:dyDescent="0.25">
       <c r="G30" s="10" t="s">
@@ -18274,13 +22056,13 @@
       </c>
     </row>
     <row r="42" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="H42" s="30" t="s">
+      <c r="H42" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
-      <c r="L42" s="30"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
     </row>
     <row r="43" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G43" s="10" t="s">
@@ -18484,7 +22266,1157 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD0F102-3DC7-4C51-AC7B-A274D668D3C9}">
   <dimension ref="A1:U52"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="G3" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="P3" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" s="35"/>
+      <c r="T3" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="U3" s="35"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" t="s">
+        <v>54</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C5" s="16">
+        <f>B5/60/60/24</f>
+        <v>3.1250000000000003E-7</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="19">
+        <v>3029.1377000000002</v>
+      </c>
+      <c r="J5" s="17">
+        <v>3007.9765000000002</v>
+      </c>
+      <c r="K5" s="19">
+        <v>2961.8478</v>
+      </c>
+      <c r="L5" s="19">
+        <v>3029.9524000000001</v>
+      </c>
+      <c r="P5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="17">
+        <v>83.968999999999994</v>
+      </c>
+      <c r="S5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T5" s="12">
+        <v>1</v>
+      </c>
+      <c r="U5" s="17">
+        <v>2.4870000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="C6" s="16">
+        <f>B6/60/60/24</f>
+        <v>5.5439814814814813E-6</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="19">
+        <v>2916.1487000000002</v>
+      </c>
+      <c r="I6" s="17">
+        <v>3233.2348000000002</v>
+      </c>
+      <c r="J6" s="17">
+        <v>2975.0403999999999</v>
+      </c>
+      <c r="K6" s="17">
+        <v>3156.7096999999999</v>
+      </c>
+      <c r="P6" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="17">
+        <v>150.72200000000001</v>
+      </c>
+      <c r="T6" s="12">
+        <v>2</v>
+      </c>
+      <c r="U6" s="17">
+        <v>2.9449999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.044</v>
+      </c>
+      <c r="C7" s="16">
+        <f>B7/60/60/24</f>
+        <v>3.5231481481481484E-5</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3</v>
+      </c>
+      <c r="G7" s="19">
+        <v>2998.8977</v>
+      </c>
+      <c r="H7" s="17">
+        <v>3022.0349999999999</v>
+      </c>
+      <c r="I7" s="17">
+        <v>3252.2988</v>
+      </c>
+      <c r="J7" s="17">
+        <v>3139.1694000000002</v>
+      </c>
+      <c r="K7" s="17">
+        <v>3236.1898000000001</v>
+      </c>
+      <c r="P7" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="17">
+        <v>202.67699999999999</v>
+      </c>
+      <c r="T7" s="12">
+        <v>3</v>
+      </c>
+      <c r="U7" s="17">
+        <v>2.952</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="22">
+        <v>247.36799999999999</v>
+      </c>
+      <c r="C8" s="16">
+        <f>B8/60/60/24</f>
+        <v>2.8630555555555558E-3</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17">
+        <v>3021.7800999999999</v>
+      </c>
+      <c r="I8" s="17">
+        <v>3328.0574000000001</v>
+      </c>
+      <c r="J8" s="17">
+        <v>3117.6486</v>
+      </c>
+      <c r="K8" s="17">
+        <v>3319.3375999999998</v>
+      </c>
+      <c r="P8" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="17">
+        <v>221.08</v>
+      </c>
+      <c r="T8" s="12">
+        <v>4</v>
+      </c>
+      <c r="U8" s="17">
+        <v>3.161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="22">
+        <v>713.16499999999996</v>
+      </c>
+      <c r="C9" s="16">
+        <f>B9/60/60/24</f>
+        <v>8.2542245370370373E-3</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17">
+        <v>3005.2494000000002</v>
+      </c>
+      <c r="I9" s="17">
+        <v>3538.8685</v>
+      </c>
+      <c r="J9" s="17">
+        <v>3106.4117999999999</v>
+      </c>
+      <c r="K9" s="17">
+        <v>3216.8326999999999</v>
+      </c>
+      <c r="P9" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q9" s="17">
+        <v>240.23500000000001</v>
+      </c>
+      <c r="T9" s="12">
+        <v>5</v>
+      </c>
+      <c r="U9" s="17">
+        <v>3.2360000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="11"/>
+      <c r="F10" s="12">
+        <v>6</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17">
+        <v>3006.433</v>
+      </c>
+      <c r="I10" s="17">
+        <v>3593.2633000000001</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2933.7282</v>
+      </c>
+      <c r="K10" s="17">
+        <v>3413.4629</v>
+      </c>
+      <c r="P10" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="17">
+        <v>252.62899999999999</v>
+      </c>
+      <c r="T10" s="12">
+        <v>6</v>
+      </c>
+      <c r="U10" s="17">
+        <v>3.1539999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="11"/>
+      <c r="F11" s="12">
+        <v>7</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17">
+        <v>3037.6460000000002</v>
+      </c>
+      <c r="I11" s="17">
+        <v>3455.0556999999999</v>
+      </c>
+      <c r="J11" s="17">
+        <v>3002.6997999999999</v>
+      </c>
+      <c r="K11" s="17">
+        <v>3378.7970999999998</v>
+      </c>
+      <c r="P11" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q11" s="17">
+        <v>254.74600000000001</v>
+      </c>
+      <c r="T11" s="12">
+        <v>7</v>
+      </c>
+      <c r="U11" s="17">
+        <v>3.1219999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="11"/>
+      <c r="F12" s="12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17">
+        <v>3031.5997000000002</v>
+      </c>
+      <c r="I12" s="17">
+        <v>3486.6414</v>
+      </c>
+      <c r="J12" s="17">
+        <v>2971.3015999999998</v>
+      </c>
+      <c r="K12" s="17">
+        <v>3356.1219999999998</v>
+      </c>
+      <c r="P12" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="17">
+        <v>265.46300000000002</v>
+      </c>
+      <c r="T12" s="12">
+        <v>8</v>
+      </c>
+      <c r="U12" s="17">
+        <v>3.0680000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="F13" s="12">
+        <v>9</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17">
+        <v>3018.8796000000002</v>
+      </c>
+      <c r="I13" s="17">
+        <v>3519.7595000000001</v>
+      </c>
+      <c r="J13" s="17">
+        <v>2976.5189999999998</v>
+      </c>
+      <c r="K13" s="17">
+        <v>3356.9883</v>
+      </c>
+      <c r="P13" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>267.87799999999999</v>
+      </c>
+      <c r="T13" s="12">
+        <v>9</v>
+      </c>
+      <c r="U13" s="17">
+        <v>3.4620000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q15" s="35"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="G16" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="O16" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q16" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="P17" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="17">
+        <v>572.99900000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="12">
+        <v>1</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="19">
+        <v>2892.3793999999998</v>
+      </c>
+      <c r="J18" s="17">
+        <v>2930.2069000000001</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2968.8368</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2922.893</v>
+      </c>
+      <c r="P18" s="12">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="17">
+        <v>632.05899999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="12">
+        <v>2</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="21">
+        <v>2854.569</v>
+      </c>
+      <c r="I19" s="17">
+        <v>2938.9209000000001</v>
+      </c>
+      <c r="J19" s="17">
+        <v>2967.0592999999999</v>
+      </c>
+      <c r="K19" s="17">
+        <v>2972.6895</v>
+      </c>
+      <c r="P19" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="17">
+        <v>649.72799999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F20" s="12">
+        <v>3</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2918.8231999999998</v>
+      </c>
+      <c r="H20" s="17">
+        <v>3023.962</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3298.4965000000002</v>
+      </c>
+      <c r="J20" s="17">
+        <v>2962.7022999999999</v>
+      </c>
+      <c r="K20" s="17">
+        <v>3377.3800999999999</v>
+      </c>
+      <c r="P20" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="17">
+        <v>737.798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F21" s="12">
+        <v>4</v>
+      </c>
+      <c r="H21" s="17">
+        <v>2949.8917000000001</v>
+      </c>
+      <c r="I21" s="17">
+        <v>3690.99</v>
+      </c>
+      <c r="J21" s="17">
+        <v>3036.1154999999999</v>
+      </c>
+      <c r="K21" s="17">
+        <v>3618.0066999999999</v>
+      </c>
+      <c r="P21" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>767.78499999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F22" s="12">
+        <v>5</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17">
+        <v>2978.7330000000002</v>
+      </c>
+      <c r="I22" s="17">
+        <v>3999.9092999999998</v>
+      </c>
+      <c r="J22" s="19">
+        <v>2881.9553999999998</v>
+      </c>
+      <c r="K22" s="17">
+        <v>3632.2928999999999</v>
+      </c>
+      <c r="P22" s="12">
+        <v>6</v>
+      </c>
+      <c r="Q22" s="17">
+        <v>751.91499999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F23" s="12">
+        <v>6</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17">
+        <v>2950.8757000000001</v>
+      </c>
+      <c r="I23" s="17">
+        <v>3920.8984999999998</v>
+      </c>
+      <c r="J23" s="17">
+        <v>2970.5527999999999</v>
+      </c>
+      <c r="K23" s="17">
+        <v>3546.5821999999998</v>
+      </c>
+      <c r="P23" s="12">
+        <v>7</v>
+      </c>
+      <c r="Q23" s="17">
+        <v>749.35599999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F24" s="12">
+        <v>7</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17">
+        <v>3099.6822000000002</v>
+      </c>
+      <c r="I24" s="17">
+        <v>3665.9522000000002</v>
+      </c>
+      <c r="J24" s="17">
+        <v>2991.4625000000001</v>
+      </c>
+      <c r="K24" s="17">
+        <v>3545.9722000000002</v>
+      </c>
+      <c r="P24" s="12">
+        <v>8</v>
+      </c>
+      <c r="Q24" s="17">
+        <v>737.84500000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F25" s="12">
+        <v>8</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17">
+        <v>3112.5025999999998</v>
+      </c>
+      <c r="I25" s="17">
+        <v>3679.3458999999998</v>
+      </c>
+      <c r="J25" s="17">
+        <v>2883.4358999999999</v>
+      </c>
+      <c r="K25" s="17">
+        <v>3560.6932000000002</v>
+      </c>
+      <c r="P25" s="12">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="17">
+        <v>734.69799999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F26" s="12">
+        <v>9</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="19">
+        <v>2162.8265000000001</v>
+      </c>
+      <c r="I26" s="17">
+        <v>3690.8130999999998</v>
+      </c>
+      <c r="J26" s="17">
+        <v>2903.4171000000001</v>
+      </c>
+      <c r="K26" s="17">
+        <v>3554.5709000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G29" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F30" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H30" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J30" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F31" s="12">
+        <v>1</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="19">
+        <v>4670.24</v>
+      </c>
+      <c r="J31" s="19">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K31" s="19">
+        <v>4670.24</v>
+      </c>
+      <c r="L31" s="19">
+        <v>4670.24</v>
+      </c>
+      <c r="N31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="F32" s="12">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="17">
+        <v>4745.7537000000002</v>
+      </c>
+      <c r="I32" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J32" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K32" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F33" s="12">
+        <v>3</v>
+      </c>
+      <c r="G33" s="24">
+        <v>4670.24</v>
+      </c>
+      <c r="H33" s="17">
+        <v>4722.8508000000002</v>
+      </c>
+      <c r="I33" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J33" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K33" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="34" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F34" s="12">
+        <v>4</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="17">
+        <v>4675.3899000000001</v>
+      </c>
+      <c r="I34" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J34" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K34" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="35" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F35" s="12">
+        <v>5</v>
+      </c>
+      <c r="G35" s="20"/>
+      <c r="H35" s="17">
+        <v>4671.7627000000002</v>
+      </c>
+      <c r="I35" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J35" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K35" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="36" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F36" s="12">
+        <v>6</v>
+      </c>
+      <c r="G36" s="20"/>
+      <c r="H36" s="17">
+        <v>4669.1944000000003</v>
+      </c>
+      <c r="I36" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J36" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K36" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="37" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F37" s="12">
+        <v>7</v>
+      </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19">
+        <v>4669.1723000000002</v>
+      </c>
+      <c r="I37" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J37" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K37" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="38" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F38" s="12">
+        <v>8</v>
+      </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="17">
+        <v>4673.4934000000003</v>
+      </c>
+      <c r="I38" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J38" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K38" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="39" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F39" s="12">
+        <v>9</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="17">
+        <v>4677.9359000000004</v>
+      </c>
+      <c r="I39" s="17">
+        <v>4670.24</v>
+      </c>
+      <c r="J39" s="17">
+        <v>4672.5563000000002</v>
+      </c>
+      <c r="K39" s="17">
+        <v>4670.24</v>
+      </c>
+    </row>
+    <row r="41" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="G42" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+    </row>
+    <row r="43" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="H43" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="I43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="K43" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F44" s="12">
+        <v>1</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="19">
+        <v>4368.8666999999996</v>
+      </c>
+      <c r="J44" s="19">
+        <v>4469.2611999999999</v>
+      </c>
+      <c r="K44" s="19">
+        <v>4374.6346999999996</v>
+      </c>
+      <c r="L44" s="19">
+        <v>4305.8090000000002</v>
+      </c>
+      <c r="N44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F45" s="12">
+        <v>2</v>
+      </c>
+      <c r="G45" s="20"/>
+      <c r="H45" s="17">
+        <v>5123.6818000000003</v>
+      </c>
+      <c r="I45" s="17">
+        <v>4777.585</v>
+      </c>
+      <c r="J45" s="17">
+        <v>4476.1656999999996</v>
+      </c>
+      <c r="K45" s="17">
+        <v>4751.2615999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F46" s="12">
+        <v>3</v>
+      </c>
+      <c r="G46" s="24"/>
+      <c r="H46" s="17">
+        <v>4801.7353000000003</v>
+      </c>
+      <c r="I46" s="17">
+        <v>5113.7151999999996</v>
+      </c>
+      <c r="J46" s="17">
+        <v>5217.1566999999995</v>
+      </c>
+      <c r="K46" s="17">
+        <v>5154.7103999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F47" s="12">
+        <v>4</v>
+      </c>
+      <c r="G47" s="24">
+        <v>5280.4309999999996</v>
+      </c>
+      <c r="H47" s="17">
+        <v>4821.4952999999996</v>
+      </c>
+      <c r="I47" s="17">
+        <v>5612.4866000000002</v>
+      </c>
+      <c r="J47" s="17">
+        <v>5138.7891</v>
+      </c>
+      <c r="K47" s="17">
+        <v>5654.3379999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="6:14" x14ac:dyDescent="0.25">
+      <c r="F48" s="12">
+        <v>5</v>
+      </c>
+      <c r="G48" s="20"/>
+      <c r="H48" s="19">
+        <v>4684.1733999999997</v>
+      </c>
+      <c r="I48" s="17">
+        <v>5591.9276</v>
+      </c>
+      <c r="J48" s="17">
+        <v>5704.6785</v>
+      </c>
+      <c r="K48" s="17">
+        <v>6134.7632000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F49" s="12">
+        <v>6</v>
+      </c>
+      <c r="G49" s="20"/>
+      <c r="H49" s="17">
+        <v>4798.7318999999998</v>
+      </c>
+      <c r="I49" s="17">
+        <v>5828.7683999999999</v>
+      </c>
+      <c r="J49" s="17">
+        <v>5881.2826999999997</v>
+      </c>
+      <c r="K49" s="17">
+        <v>6540.5905000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F50" s="12">
+        <v>7</v>
+      </c>
+      <c r="G50" s="20"/>
+      <c r="H50" s="17">
+        <v>4934.8059000000003</v>
+      </c>
+      <c r="I50" s="17">
+        <v>5925.7739000000001</v>
+      </c>
+      <c r="J50" s="17">
+        <v>6452.8892999999998</v>
+      </c>
+      <c r="K50" s="17">
+        <v>6526.3330999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F51" s="12">
+        <v>8</v>
+      </c>
+      <c r="G51" s="20"/>
+      <c r="H51" s="17">
+        <v>5166.6737000000003</v>
+      </c>
+      <c r="I51" s="17">
+        <v>6087.1574000000001</v>
+      </c>
+      <c r="J51" s="17">
+        <v>6485.1023999999998</v>
+      </c>
+      <c r="K51" s="17">
+        <v>6613.8858</v>
+      </c>
+    </row>
+    <row r="52" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="F52" s="12">
+        <v>9</v>
+      </c>
+      <c r="G52" s="20"/>
+      <c r="H52" s="17">
+        <v>4894.1741000000002</v>
+      </c>
+      <c r="I52" s="17">
+        <v>6120.5816000000004</v>
+      </c>
+      <c r="J52" s="17">
+        <v>6513.3662000000004</v>
+      </c>
+      <c r="K52" s="17">
+        <v>6633.0402999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="G42:K42"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G29:K29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E448BADC-6343-4021-A4FD-679647BA89E5}">
+  <dimension ref="A1:U52"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
@@ -18508,7 +23440,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
         <v>64</v>
@@ -18521,21 +23453,21 @@
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="P3" s="30" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="P3" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="T3" s="30" t="s">
+      <c r="Q3" s="35"/>
+      <c r="T3" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="U3" s="30"/>
+      <c r="U3" s="35"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
@@ -18544,7 +23476,7 @@
       <c r="B4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="27" t="s">
         <v>57</v>
       </c>
       <c r="F4" s="10" t="s">
@@ -18588,208 +23520,139 @@
       <c r="A5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="2">
-        <v>2.7E-2</v>
-      </c>
-      <c r="C5" s="16">
-        <f>B5/60/60/24</f>
-        <v>3.1250000000000003E-7</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="16"/>
       <c r="F5" s="12">
         <v>1</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="19">
-        <v>3029.1377000000002</v>
-      </c>
-      <c r="J5" s="17">
-        <v>3007.9765000000002</v>
-      </c>
-      <c r="K5" s="19">
-        <v>2961.8478</v>
-      </c>
-      <c r="L5" s="19">
-        <v>3029.9524000000001</v>
-      </c>
+        <v>961.6268</v>
+      </c>
+      <c r="J5" s="17"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="P5" s="12">
         <v>1</v>
       </c>
-      <c r="Q5" s="17">
-        <v>83.968999999999994</v>
-      </c>
+      <c r="Q5" s="17"/>
       <c r="S5" t="s">
         <v>53</v>
       </c>
       <c r="T5" s="12">
         <v>1</v>
       </c>
-      <c r="U5" s="17">
-        <v>2.4870000000000001</v>
-      </c>
+      <c r="U5" s="17"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.47899999999999998</v>
-      </c>
-      <c r="C6" s="16">
-        <f>B6/60/60/24</f>
-        <v>5.5439814814814813E-6</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="16"/>
       <c r="F6" s="12">
         <v>2</v>
       </c>
       <c r="G6" s="17"/>
-      <c r="H6" s="19">
-        <v>2916.1487000000002</v>
+      <c r="H6" s="21">
+        <v>979.98860000000002</v>
       </c>
       <c r="I6" s="17">
-        <v>3233.2348000000002</v>
-      </c>
-      <c r="J6" s="17">
-        <v>2975.0403999999999</v>
-      </c>
-      <c r="K6" s="17">
-        <v>3156.7096999999999</v>
-      </c>
+        <v>975.07270000000005</v>
+      </c>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="P6" s="12">
         <v>2</v>
       </c>
-      <c r="Q6" s="17">
-        <v>150.72200000000001</v>
-      </c>
+      <c r="Q6" s="17"/>
       <c r="T6" s="12">
         <v>2</v>
       </c>
-      <c r="U6" s="17">
-        <v>2.9449999999999998</v>
-      </c>
+      <c r="U6" s="17"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="2">
-        <v>3.044</v>
-      </c>
-      <c r="C7" s="16">
-        <f>B7/60/60/24</f>
-        <v>3.5231481481481484E-5</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="16"/>
       <c r="F7" s="12">
         <v>3</v>
       </c>
-      <c r="G7" s="19">
-        <v>2998.8977</v>
-      </c>
+      <c r="G7" s="19"/>
       <c r="H7" s="17">
-        <v>3022.0349999999999</v>
+        <v>964.68380000000002</v>
       </c>
       <c r="I7" s="17">
-        <v>3252.2988</v>
-      </c>
-      <c r="J7" s="17">
-        <v>3139.1694000000002</v>
-      </c>
-      <c r="K7" s="17">
-        <v>3236.1898000000001</v>
-      </c>
+        <v>976.2527</v>
+      </c>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
       <c r="P7" s="12">
         <v>3</v>
       </c>
-      <c r="Q7" s="17">
-        <v>202.67699999999999</v>
-      </c>
+      <c r="Q7" s="17"/>
       <c r="T7" s="12">
         <v>3</v>
       </c>
-      <c r="U7" s="17">
-        <v>2.952</v>
-      </c>
+      <c r="U7" s="17"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="22">
-        <v>247.36799999999999</v>
-      </c>
-      <c r="C8" s="16">
-        <f>B8/60/60/24</f>
-        <v>2.8630555555555558E-3</v>
-      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="16"/>
       <c r="D8" s="15"/>
       <c r="F8" s="12">
         <v>4</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="17">
-        <v>3021.7800999999999</v>
+        <v>951.13250000000005</v>
       </c>
       <c r="I8" s="17">
-        <v>3328.0574000000001</v>
-      </c>
-      <c r="J8" s="17">
-        <v>3117.6486</v>
-      </c>
-      <c r="K8" s="17">
-        <v>3319.3375999999998</v>
-      </c>
+        <v>963.63980000000004</v>
+      </c>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="P8" s="12">
         <v>4</v>
       </c>
-      <c r="Q8" s="17">
-        <v>221.08</v>
-      </c>
+      <c r="Q8" s="17"/>
       <c r="T8" s="12">
         <v>4</v>
       </c>
-      <c r="U8" s="17">
-        <v>3.161</v>
-      </c>
+      <c r="U8" s="17"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="22">
-        <v>713.16499999999996</v>
-      </c>
-      <c r="C9" s="16">
-        <f>B9/60/60/24</f>
-        <v>8.2542245370370373E-3</v>
-      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="16"/>
       <c r="F9" s="12">
         <v>5</v>
       </c>
       <c r="G9" s="17"/>
-      <c r="H9" s="17">
-        <v>3005.2494000000002</v>
+      <c r="H9" s="19">
+        <v>947.35749999999996</v>
       </c>
       <c r="I9" s="17">
-        <v>3538.8685</v>
-      </c>
-      <c r="J9" s="17">
-        <v>3106.4117999999999</v>
-      </c>
-      <c r="K9" s="17">
-        <v>3216.8326999999999</v>
-      </c>
+        <v>959.43269999999995</v>
+      </c>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
       <c r="P9" s="12">
         <v>5</v>
       </c>
-      <c r="Q9" s="17">
-        <v>240.23500000000001</v>
-      </c>
+      <c r="Q9" s="17"/>
       <c r="T9" s="12">
         <v>5</v>
       </c>
-      <c r="U9" s="17">
-        <v>3.2360000000000002</v>
-      </c>
+      <c r="U9" s="17"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
@@ -18798,29 +23661,21 @@
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="17">
-        <v>3006.433</v>
+        <v>954.10860000000002</v>
       </c>
       <c r="I10" s="17">
-        <v>3593.2633000000001</v>
-      </c>
-      <c r="J10" s="19">
-        <v>2933.7282</v>
-      </c>
-      <c r="K10" s="17">
-        <v>3413.4629</v>
-      </c>
+        <v>961.46860000000004</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="17"/>
       <c r="P10" s="12">
         <v>6</v>
       </c>
-      <c r="Q10" s="17">
-        <v>252.62899999999999</v>
-      </c>
+      <c r="Q10" s="17"/>
       <c r="T10" s="12">
         <v>6</v>
       </c>
-      <c r="U10" s="17">
-        <v>3.1539999999999999</v>
-      </c>
+      <c r="U10" s="17"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
@@ -18829,29 +23684,21 @@
       </c>
       <c r="G11" s="17"/>
       <c r="H11" s="17">
-        <v>3037.6460000000002</v>
+        <v>955.84019999999998</v>
       </c>
       <c r="I11" s="17">
-        <v>3455.0556999999999</v>
-      </c>
-      <c r="J11" s="17">
-        <v>3002.6997999999999</v>
-      </c>
-      <c r="K11" s="17">
-        <v>3378.7970999999998</v>
-      </c>
+        <v>968.89409999999998</v>
+      </c>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="P11" s="12">
         <v>7</v>
       </c>
-      <c r="Q11" s="17">
-        <v>254.74600000000001</v>
-      </c>
+      <c r="Q11" s="17"/>
       <c r="T11" s="12">
         <v>7</v>
       </c>
-      <c r="U11" s="17">
-        <v>3.1219999999999999</v>
-      </c>
+      <c r="U11" s="17"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12" s="11"/>
@@ -18860,29 +23707,21 @@
       </c>
       <c r="G12" s="17"/>
       <c r="H12" s="17">
-        <v>3031.5997000000002</v>
+        <v>969.26170000000002</v>
       </c>
       <c r="I12" s="17">
-        <v>3486.6414</v>
-      </c>
-      <c r="J12" s="17">
-        <v>2971.3015999999998</v>
-      </c>
-      <c r="K12" s="17">
-        <v>3356.1219999999998</v>
-      </c>
+        <v>969.34209999999996</v>
+      </c>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
       <c r="P12" s="12">
         <v>8</v>
       </c>
-      <c r="Q12" s="17">
-        <v>265.46300000000002</v>
-      </c>
+      <c r="Q12" s="17"/>
       <c r="T12" s="12">
         <v>8</v>
       </c>
-      <c r="U12" s="17">
-        <v>3.0680000000000001</v>
-      </c>
+      <c r="U12" s="17"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
@@ -18891,39 +23730,31 @@
       </c>
       <c r="G13" s="17"/>
       <c r="H13" s="17">
-        <v>3018.8796000000002</v>
+        <v>968.95050000000003</v>
       </c>
       <c r="I13" s="17">
-        <v>3519.7595000000001</v>
-      </c>
-      <c r="J13" s="17">
-        <v>2976.5189999999998</v>
-      </c>
-      <c r="K13" s="17">
-        <v>3356.9883</v>
-      </c>
+        <v>969.43679999999995</v>
+      </c>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="P13" s="12">
         <v>9</v>
       </c>
-      <c r="Q13" s="17">
-        <v>267.87799999999999</v>
-      </c>
+      <c r="Q13" s="17"/>
       <c r="T13" s="12">
         <v>9</v>
       </c>
-      <c r="U13" s="17">
-        <v>3.4620000000000002</v>
-      </c>
+      <c r="U13" s="17"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="F15" t="s">
         <v>63</v>
       </c>
-      <c r="P15" s="30" t="s">
+      <c r="P15" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="Q15" s="30"/>
+      <c r="Q15" s="35"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
@@ -18931,13 +23762,13 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="30" t="s">
+      <c r="G16" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
       <c r="O16" t="s">
         <v>55</v>
       </c>
@@ -18978,9 +23809,7 @@
       <c r="P17" s="12">
         <v>1</v>
       </c>
-      <c r="Q17" s="17">
-        <v>572.99900000000002</v>
-      </c>
+      <c r="Q17" s="17"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
@@ -18993,24 +23822,16 @@
       </c>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="19">
-        <v>2892.3793999999998</v>
-      </c>
-      <c r="J18" s="17">
-        <v>2930.2069000000001</v>
-      </c>
-      <c r="K18" s="19">
-        <v>2968.8368</v>
-      </c>
-      <c r="L18" s="19">
-        <v>2922.893</v>
-      </c>
+      <c r="I18" s="21">
+        <v>1376.7175999999999</v>
+      </c>
+      <c r="J18" s="17"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
       <c r="P18" s="12">
         <v>2</v>
       </c>
-      <c r="Q18" s="17">
-        <v>632.05899999999997</v>
-      </c>
+      <c r="Q18" s="17"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
@@ -19023,72 +23844,52 @@
       </c>
       <c r="G19" s="17"/>
       <c r="H19" s="21">
-        <v>2854.569</v>
+        <v>1441.3725999999999</v>
       </c>
       <c r="I19" s="17">
-        <v>2938.9209000000001</v>
-      </c>
-      <c r="J19" s="17">
-        <v>2967.0592999999999</v>
-      </c>
-      <c r="K19" s="17">
-        <v>2972.6895</v>
-      </c>
+        <v>1374.2693999999999</v>
+      </c>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
       <c r="P19" s="12">
         <v>3</v>
       </c>
-      <c r="Q19" s="17">
-        <v>649.72799999999995</v>
-      </c>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F20" s="12">
         <v>3</v>
       </c>
-      <c r="G20" s="19">
-        <v>2918.8231999999998</v>
-      </c>
-      <c r="H20" s="17">
-        <v>3023.962</v>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19">
+        <v>1387.8967</v>
       </c>
       <c r="I20" s="17">
-        <v>3298.4965000000002</v>
-      </c>
-      <c r="J20" s="17">
-        <v>2962.7022999999999</v>
-      </c>
-      <c r="K20" s="17">
-        <v>3377.3800999999999</v>
-      </c>
+        <v>1363.5989</v>
+      </c>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
       <c r="P20" s="12">
         <v>4</v>
       </c>
-      <c r="Q20" s="17">
-        <v>737.798</v>
-      </c>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F21" s="12">
         <v>4</v>
       </c>
       <c r="H21" s="17">
-        <v>2949.8917000000001</v>
-      </c>
-      <c r="I21" s="17">
-        <v>3690.99</v>
-      </c>
-      <c r="J21" s="17">
-        <v>3036.1154999999999</v>
-      </c>
-      <c r="K21" s="17">
-        <v>3618.0066999999999</v>
-      </c>
+        <v>1403.1815999999999</v>
+      </c>
+      <c r="I21" s="21">
+        <v>1351.4074000000001</v>
+      </c>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
       <c r="P21" s="12">
         <v>5</v>
       </c>
-      <c r="Q21" s="17">
-        <v>767.78499999999997</v>
-      </c>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F22" s="12">
@@ -19096,23 +23897,17 @@
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="17">
-        <v>2978.7330000000002</v>
+        <v>1445.2965999999999</v>
       </c>
       <c r="I22" s="17">
-        <v>3999.9092999999998</v>
-      </c>
-      <c r="J22" s="19">
-        <v>2881.9553999999998</v>
-      </c>
-      <c r="K22" s="17">
-        <v>3632.2928999999999</v>
-      </c>
+        <v>1364.9602</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="17"/>
       <c r="P22" s="12">
         <v>6</v>
       </c>
-      <c r="Q22" s="17">
-        <v>751.91499999999996</v>
-      </c>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F23" s="12">
@@ -19120,23 +23915,17 @@
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="17">
-        <v>2950.8757000000001</v>
+        <v>1433.5</v>
       </c>
       <c r="I23" s="17">
-        <v>3920.8984999999998</v>
-      </c>
-      <c r="J23" s="17">
-        <v>2970.5527999999999</v>
-      </c>
-      <c r="K23" s="17">
-        <v>3546.5821999999998</v>
-      </c>
+        <v>1382.8096</v>
+      </c>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
       <c r="P23" s="12">
         <v>7</v>
       </c>
-      <c r="Q23" s="17">
-        <v>749.35599999999999</v>
-      </c>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F24" s="12">
@@ -19144,23 +23933,17 @@
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="17">
-        <v>3099.6822000000002</v>
-      </c>
-      <c r="I24" s="17">
-        <v>3665.9522000000002</v>
-      </c>
-      <c r="J24" s="17">
-        <v>2991.4625000000001</v>
-      </c>
-      <c r="K24" s="17">
-        <v>3545.9722000000002</v>
-      </c>
+        <v>1471.6617000000001</v>
+      </c>
+      <c r="I24" s="19">
+        <v>1343.1414</v>
+      </c>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
       <c r="P24" s="12">
         <v>8</v>
       </c>
-      <c r="Q24" s="17">
-        <v>737.84500000000003</v>
-      </c>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F25" s="12">
@@ -19168,41 +23951,31 @@
       </c>
       <c r="G25" s="17"/>
       <c r="H25" s="17">
-        <v>3112.5025999999998</v>
+        <v>1438.0851</v>
       </c>
       <c r="I25" s="17">
-        <v>3679.3458999999998</v>
-      </c>
-      <c r="J25" s="17">
-        <v>2883.4358999999999</v>
-      </c>
-      <c r="K25" s="17">
-        <v>3560.6932000000002</v>
-      </c>
+        <v>1361.7824000000001</v>
+      </c>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
       <c r="P25" s="12">
         <v>9</v>
       </c>
-      <c r="Q25" s="17">
-        <v>734.69799999999998</v>
-      </c>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F26" s="12">
         <v>9</v>
       </c>
       <c r="G26" s="17"/>
-      <c r="H26" s="19">
-        <v>2162.8265000000001</v>
+      <c r="H26" s="21">
+        <v>1448.7420999999999</v>
       </c>
       <c r="I26" s="17">
-        <v>3690.8130999999998</v>
-      </c>
-      <c r="J26" s="17">
-        <v>2903.4171000000001</v>
-      </c>
-      <c r="K26" s="17">
-        <v>3554.5709000000002</v>
-      </c>
+        <v>1360.87</v>
+      </c>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
@@ -19210,13 +23983,13 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="G29" s="30" t="s">
+      <c r="G29" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F30" s="10" t="s">
@@ -19248,17 +24021,11 @@
       <c r="G31" s="20"/>
       <c r="H31" s="17"/>
       <c r="I31" s="19">
-        <v>4670.24</v>
-      </c>
-      <c r="J31" s="19">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K31" s="19">
-        <v>4670.24</v>
-      </c>
-      <c r="L31" s="19">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
       <c r="N31" t="s">
         <v>67</v>
       </c>
@@ -19269,37 +24036,27 @@
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="17">
-        <v>4745.7537000000002</v>
+        <v>2325.3573000000001</v>
       </c>
       <c r="I32" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J32" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K32" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
     </row>
     <row r="33" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F33" s="12">
         <v>3</v>
       </c>
-      <c r="G33" s="24">
-        <v>4670.24</v>
-      </c>
+      <c r="G33" s="24"/>
       <c r="H33" s="17">
-        <v>4722.8508000000002</v>
+        <v>2202.7523999999999</v>
       </c>
       <c r="I33" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J33" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K33" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
     </row>
     <row r="34" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F34" s="12">
@@ -19307,35 +24064,27 @@
       </c>
       <c r="G34" s="20"/>
       <c r="H34" s="17">
-        <v>4675.3899000000001</v>
+        <v>2131.0988000000002</v>
       </c>
       <c r="I34" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J34" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K34" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
     </row>
     <row r="35" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F35" s="12">
         <v>5</v>
       </c>
       <c r="G35" s="20"/>
-      <c r="H35" s="17">
-        <v>4671.7627000000002</v>
+      <c r="H35" s="19">
+        <v>2114.6275999999998</v>
       </c>
       <c r="I35" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J35" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K35" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
     </row>
     <row r="36" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F36" s="12">
@@ -19343,35 +24092,27 @@
       </c>
       <c r="G36" s="20"/>
       <c r="H36" s="17">
-        <v>4669.1944000000003</v>
+        <v>2116.8969000000002</v>
       </c>
       <c r="I36" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J36" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K36" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
     </row>
     <row r="37" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F37" s="12">
         <v>7</v>
       </c>
       <c r="G37" s="20"/>
-      <c r="H37" s="19">
-        <v>4669.1723000000002</v>
+      <c r="H37" s="21">
+        <v>2136.7465000000002</v>
       </c>
       <c r="I37" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J37" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K37" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
     </row>
     <row r="38" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F38" s="12">
@@ -19379,17 +24120,13 @@
       </c>
       <c r="G38" s="20"/>
       <c r="H38" s="17">
-        <v>4673.4934000000003</v>
+        <v>2140.6956</v>
       </c>
       <c r="I38" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J38" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K38" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
     </row>
     <row r="39" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F39" s="12">
@@ -19397,17 +24134,13 @@
       </c>
       <c r="G39" s="20"/>
       <c r="H39" s="17">
-        <v>4677.9359000000004</v>
+        <v>2125.1178</v>
       </c>
       <c r="I39" s="17">
-        <v>4670.24</v>
-      </c>
-      <c r="J39" s="17">
-        <v>4672.5563000000002</v>
-      </c>
-      <c r="K39" s="17">
-        <v>4670.24</v>
-      </c>
+        <v>2114.0091000000002</v>
+      </c>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
     </row>
     <row r="41" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F41" t="s">
@@ -19415,13 +24148,13 @@
       </c>
     </row>
     <row r="42" spans="6:14" x14ac:dyDescent="0.25">
-      <c r="G42" s="30" t="s">
+      <c r="G42" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-      <c r="K42" s="30"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
     </row>
     <row r="43" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F43" s="10" t="s">
@@ -19453,17 +24186,11 @@
       <c r="G44" s="20"/>
       <c r="H44" s="17"/>
       <c r="I44" s="19">
-        <v>4368.8666999999996</v>
-      </c>
-      <c r="J44" s="19">
-        <v>4469.2611999999999</v>
-      </c>
-      <c r="K44" s="19">
-        <v>4374.6346999999996</v>
-      </c>
-      <c r="L44" s="19">
-        <v>4305.8090000000002</v>
-      </c>
+        <v>849.22029999999995</v>
+      </c>
+      <c r="J44" s="19"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="19"/>
       <c r="N44" t="s">
         <v>67</v>
       </c>
@@ -19473,18 +24200,14 @@
         <v>2</v>
       </c>
       <c r="G45" s="20"/>
-      <c r="H45" s="17">
-        <v>5123.6818000000003</v>
+      <c r="H45" s="19">
+        <v>852.83399999999995</v>
       </c>
       <c r="I45" s="17">
-        <v>4777.585</v>
-      </c>
-      <c r="J45" s="17">
-        <v>4476.1656999999996</v>
-      </c>
-      <c r="K45" s="17">
-        <v>4751.2615999999998</v>
-      </c>
+        <v>849.48990000000003</v>
+      </c>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
     </row>
     <row r="46" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F46" s="12">
@@ -19492,55 +24215,41 @@
       </c>
       <c r="G46" s="24"/>
       <c r="H46" s="17">
-        <v>4801.7353000000003</v>
+        <v>854.96939999999995</v>
       </c>
       <c r="I46" s="17">
-        <v>5113.7151999999996</v>
-      </c>
-      <c r="J46" s="17">
-        <v>5217.1566999999995</v>
-      </c>
-      <c r="K46" s="17">
-        <v>5154.7103999999999</v>
-      </c>
+        <v>849.14880000000005</v>
+      </c>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
     </row>
     <row r="47" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F47" s="12">
         <v>4</v>
       </c>
-      <c r="G47" s="24">
-        <v>5280.4309999999996</v>
-      </c>
+      <c r="G47" s="24"/>
       <c r="H47" s="17">
-        <v>4821.4952999999996</v>
+        <v>861.02430000000004</v>
       </c>
       <c r="I47" s="17">
-        <v>5612.4866000000002</v>
-      </c>
-      <c r="J47" s="17">
-        <v>5138.7891</v>
-      </c>
-      <c r="K47" s="17">
-        <v>5654.3379999999997</v>
-      </c>
+        <v>852.42010000000005</v>
+      </c>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
     </row>
     <row r="48" spans="6:14" x14ac:dyDescent="0.25">
       <c r="F48" s="12">
         <v>5</v>
       </c>
       <c r="G48" s="20"/>
-      <c r="H48" s="19">
-        <v>4684.1733999999997</v>
+      <c r="H48" s="21">
+        <v>862.13310000000001</v>
       </c>
       <c r="I48" s="17">
-        <v>5591.9276</v>
-      </c>
-      <c r="J48" s="17">
-        <v>5704.6785</v>
-      </c>
-      <c r="K48" s="17">
-        <v>6134.7632000000003</v>
-      </c>
+        <v>855.96559999999999</v>
+      </c>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
     </row>
     <row r="49" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F49" s="12">
@@ -19548,17 +24257,13 @@
       </c>
       <c r="G49" s="20"/>
       <c r="H49" s="17">
-        <v>4798.7318999999998</v>
+        <v>861.29160000000002</v>
       </c>
       <c r="I49" s="17">
-        <v>5828.7683999999999</v>
-      </c>
-      <c r="J49" s="17">
-        <v>5881.2826999999997</v>
-      </c>
-      <c r="K49" s="17">
-        <v>6540.5905000000002</v>
-      </c>
+        <v>859.86950000000002</v>
+      </c>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
     </row>
     <row r="50" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F50" s="12">
@@ -19566,17 +24271,13 @@
       </c>
       <c r="G50" s="20"/>
       <c r="H50" s="17">
-        <v>4934.8059000000003</v>
+        <v>861.23530000000005</v>
       </c>
       <c r="I50" s="17">
-        <v>5925.7739000000001</v>
-      </c>
-      <c r="J50" s="17">
-        <v>6452.8892999999998</v>
-      </c>
-      <c r="K50" s="17">
-        <v>6526.3330999999998</v>
-      </c>
+        <v>862.55960000000005</v>
+      </c>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
     </row>
     <row r="51" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F51" s="12">
@@ -19584,17 +24285,13 @@
       </c>
       <c r="G51" s="20"/>
       <c r="H51" s="17">
-        <v>5166.6737000000003</v>
+        <v>861.46</v>
       </c>
       <c r="I51" s="17">
-        <v>6087.1574000000001</v>
-      </c>
-      <c r="J51" s="17">
-        <v>6485.1023999999998</v>
-      </c>
-      <c r="K51" s="17">
-        <v>6613.8858</v>
-      </c>
+        <v>862.25620000000004</v>
+      </c>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
     </row>
     <row r="52" spans="6:11" x14ac:dyDescent="0.25">
       <c r="F52" s="12">
@@ -19602,17 +24299,13 @@
       </c>
       <c r="G52" s="20"/>
       <c r="H52" s="17">
-        <v>4894.1741000000002</v>
-      </c>
-      <c r="I52" s="17">
-        <v>6120.5816000000004</v>
-      </c>
-      <c r="J52" s="17">
-        <v>6513.3662000000004</v>
-      </c>
-      <c r="K52" s="17">
-        <v>6633.0402999999997</v>
-      </c>
+        <v>860.80560000000003</v>
+      </c>
+      <c r="I52" s="21">
+        <v>860.18830000000003</v>
+      </c>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -19625,12 +24318,12 @@
     <mergeCell ref="G29:K29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3193C8-EB99-41EF-BB0C-E7525732AF65}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19645,7 +24338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A71F8671-37B5-4360-8FC2-FA32C0D1EE3B}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -19669,8 +24362,8 @@
       <c r="D1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
